--- a/time13.xlsx
+++ b/time13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D552"/>
+  <dimension ref="A1:D497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5201295600322365</v>
+        <v>0.2313992961488098</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6662266136054753</v>
+        <v>0.3049568048848582</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1460970535732388</v>
+        <v>-0.07355750873604833</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5319227087227706</v>
+        <v>0.2412180770817311</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5707124102339649</v>
+        <v>0.2798789351691209</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.03878970151119432</v>
+        <v>-0.03866085808738981</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5422457326311594</v>
+        <v>0.2522623357094491</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6948869679910183</v>
+        <v>0.2972346778282174</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.152641235359859</v>
+        <v>-0.04497234211876833</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5505221870416507</v>
+        <v>0.2647839891666333</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5588487523145679</v>
+        <v>0.3079153821389664</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.008326565272917197</v>
+        <v>-0.04313139297233309</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5589468603553437</v>
+        <v>0.2649560045525923</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5819436261231702</v>
+        <v>0.3680640932147582</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0229967657678265</v>
+        <v>-0.103108088662166</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5678606040173785</v>
+        <v>0.2769043306228838</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6690200622065909</v>
+        <v>0.3235832531046219</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1011594581892125</v>
+        <v>-0.04667892248173805</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5822400160002071</v>
+        <v>0.2805477461009748</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6645636287269671</v>
+        <v>0.3654870322501088</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.08232361272675992</v>
+        <v>-0.08493928614913404</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5868342931153603</v>
+        <v>0.2835382062514742</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6008539522092854</v>
+        <v>0.3736592628430578</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.01401965909392511</v>
+        <v>-0.09012105659158359</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.587828502097826</v>
+        <v>0.2843440643884348</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6720973382176287</v>
+        <v>0.2858989090772471</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.08426883611980274</v>
+        <v>-0.001554844688812285</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5985701300912619</v>
+        <v>0.3057755019566411</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6656244169778989</v>
+        <v>0.3674831859595148</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.06705428688663695</v>
+        <v>-0.06170768400287374</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6169800534472148</v>
+        <v>0.3136996066785289</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6368187301953946</v>
+        <v>0.3425609058657574</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.01983867674817974</v>
+        <v>-0.02886129918722857</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6253458257977367</v>
+        <v>0.3278807267994968</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6739141811033977</v>
+        <v>0.3732044186281555</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.04856835530566106</v>
+        <v>-0.04532369182865864</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6365819318205944</v>
+        <v>0.3373660178572332</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6413784667145126</v>
+        <v>0.3439671705405131</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.004796534893918181</v>
+        <v>-0.006601152683279876</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6465529627623994</v>
+        <v>3.082808488647413</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6555289566791322</v>
+        <v>3.08644725101568</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.008975993916732872</v>
+        <v>-0.003638762368266768</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7362066455706607</v>
+        <v>3.120604167561403</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6968122607584231</v>
+        <v>3.159063659003477</v>
       </c>
       <c r="D16" t="n">
-        <v>0.03939438481223767</v>
+        <v>-0.03845949144207417</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.53001856996538</v>
+        <v>3.134437488218265</v>
       </c>
       <c r="C17" t="n">
-        <v>1.665575314267804</v>
+        <v>3.245565487276727</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1355567443024233</v>
+        <v>-0.1111279990584615</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.5568628092117</v>
+        <v>3.143928042701279</v>
       </c>
       <c r="C18" t="n">
-        <v>1.675915209726747</v>
+        <v>3.144881986103433</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1190524005150468</v>
+        <v>-0.0009539434021537119</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.598982729591174</v>
+        <v>3.145355844867713</v>
       </c>
       <c r="C19" t="n">
-        <v>1.679700461187553</v>
+        <v>3.212107805005886</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.08071773159637852</v>
+        <v>-0.06675196013817297</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.600541381482979</v>
+        <v>3.148614990478797</v>
       </c>
       <c r="C20" t="n">
-        <v>1.663049196113882</v>
+        <v>3.214373205458979</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.06250781463090305</v>
+        <v>-0.06575821498018231</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.600842699315695</v>
+        <v>3.154138662649057</v>
       </c>
       <c r="C21" t="n">
-        <v>1.609494655220147</v>
+        <v>3.218884239929062</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.00865195590445178</v>
+        <v>-0.06474557728000496</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.609266269720631</v>
+        <v>3.167881359028792</v>
       </c>
       <c r="C22" t="n">
-        <v>1.650688078635062</v>
+        <v>3.252274702296455</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.04142180891443115</v>
+        <v>-0.08439334326766268</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.62838771415031</v>
+        <v>3.188438280754669</v>
       </c>
       <c r="C23" t="n">
-        <v>1.637775185103362</v>
+        <v>3.205296768027165</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.009387470953051258</v>
+        <v>-0.01685848727249617</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.640301904240111</v>
+        <v>3.217199444167349</v>
       </c>
       <c r="C24" t="n">
-        <v>1.654344836454449</v>
+        <v>3.248922747656384</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.01404293221433806</v>
+        <v>-0.03172330348903474</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.67596659629596</v>
+        <v>5.905878422386385</v>
       </c>
       <c r="C25" t="n">
-        <v>1.683427495056094</v>
+        <v>6.024827160175523</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.007460898760133894</v>
+        <v>-0.1189487377891378</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.76594641220545</v>
+        <v>5.935189684547802</v>
       </c>
       <c r="C26" t="n">
-        <v>1.936962769519203</v>
+        <v>5.938005239085296</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.1710163573137531</v>
+        <v>-0.002815554537494158</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.7995458383489</v>
+        <v>5.947119200932605</v>
       </c>
       <c r="C27" t="n">
-        <v>1.868417093935583</v>
+        <v>5.983323510239448</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.06887125558668328</v>
+        <v>-0.03620430930684204</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.802455937796701</v>
+        <v>5.972536577811925</v>
       </c>
       <c r="C28" t="n">
-        <v>1.932873469763516</v>
+        <v>6.049786480649909</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1304175319668153</v>
+        <v>-0.07724990283798405</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.81446052685719</v>
+        <v>5.981656945184114</v>
       </c>
       <c r="C29" t="n">
-        <v>1.937230037626513</v>
+        <v>6.010218064035543</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.1227695107693239</v>
+        <v>-0.02856111885142898</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.823880264028462</v>
+        <v>6.001787471718524</v>
       </c>
       <c r="C30" t="n">
-        <v>1.914947741484584</v>
+        <v>6.043758240723155</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.09106747745612243</v>
+        <v>-0.0419707690046307</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.826162330461065</v>
+        <v>6.309303283115023</v>
       </c>
       <c r="C31" t="n">
-        <v>1.91690857337641</v>
+        <v>6.325726240372824</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.0907462429153445</v>
+        <v>-0.01642295725780141</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.827874009181753</v>
+        <v>6.318374909510172</v>
       </c>
       <c r="C32" t="n">
-        <v>1.856068458373799</v>
+        <v>6.457182924144746</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.02819444919204561</v>
+        <v>-0.1388080146345736</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.858004989747063</v>
+        <v>6.33244072436728</v>
       </c>
       <c r="C33" t="n">
-        <v>1.85983724650904</v>
+        <v>6.399844079441802</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.001832256761977291</v>
+        <v>-0.06740335507452233</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.859305738163763</v>
+        <v>6.33421939077768</v>
       </c>
       <c r="C34" t="n">
-        <v>1.877559393497086</v>
+        <v>6.394938427437133</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.0182536553333239</v>
+        <v>-0.060719036659453</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.891209824677613</v>
+        <v>6.340934734202341</v>
       </c>
       <c r="C35" t="n">
-        <v>1.934769727355968</v>
+        <v>6.39557165882561</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.04355990267835508</v>
+        <v>-0.05463692462326808</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.899185550865567</v>
+        <v>6.34982473773923</v>
       </c>
       <c r="C36" t="n">
-        <v>1.921439718023205</v>
+        <v>6.408671089361274</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.02225416715763839</v>
+        <v>-0.05884635162204432</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.903799904627226</v>
+        <v>6.354179821303307</v>
       </c>
       <c r="C37" t="n">
-        <v>1.922432290103093</v>
+        <v>6.354571040565231</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.01863238547586743</v>
+        <v>-0.0003912192619237587</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.905651218633297</v>
+        <v>6.36922852415114</v>
       </c>
       <c r="C38" t="n">
-        <v>1.936777322429574</v>
+        <v>6.462356140931121</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.03112610379627689</v>
+        <v>-0.09312761677998083</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.918546332344357</v>
+        <v>6.415396467829249</v>
       </c>
       <c r="C39" t="n">
-        <v>1.93093177801843</v>
+        <v>6.418405823632646</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.0123854456740724</v>
+        <v>-0.003009355803396119</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.938177246971772</v>
+        <v>6.422381075743766</v>
       </c>
       <c r="C40" t="n">
-        <v>1.939704667796556</v>
+        <v>6.43131861016977</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.001527420824783965</v>
+        <v>-0.008937534426004312</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5.459213709772188</v>
+        <v>6.429515363513585</v>
       </c>
       <c r="C41" t="n">
-        <v>5.574795449142785</v>
+        <v>6.441133826835666</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.1155817393705973</v>
+        <v>-0.0116184633220815</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5.467141547951391</v>
+        <v>7.537822968441808</v>
       </c>
       <c r="C42" t="n">
-        <v>5.552499131691095</v>
+        <v>7.545968098908853</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.0853575837397047</v>
+        <v>-0.008145130467045014</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1029,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5.517405182820796</v>
+        <v>7.554678075542379</v>
       </c>
       <c r="C43" t="n">
-        <v>5.574070855979501</v>
+        <v>7.621510389547261</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.05666567315870541</v>
+        <v>-0.06683231400488143</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>5.534501933596746</v>
+        <v>7.56295783146906</v>
       </c>
       <c r="C44" t="n">
-        <v>5.565872800922979</v>
+        <v>7.624094647081767</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.03137086732623295</v>
+        <v>-0.06113681561270745</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1057,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5.55708838932676</v>
+        <v>7.57256843236569</v>
       </c>
       <c r="C45" t="n">
-        <v>5.573249170031488</v>
+        <v>7.69211295737173</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.01616078070472771</v>
+        <v>-0.1195445250060398</v>
       </c>
     </row>
     <row r="46">
@@ -1071,13 +1071,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>6.134866732820565</v>
+        <v>7.573908213405494</v>
       </c>
       <c r="C46" t="n">
-        <v>6.262263671524148</v>
+        <v>7.64990609476637</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.1273969387035834</v>
+        <v>-0.07599788136087593</v>
       </c>
     </row>
     <row r="47">
@@ -1085,13 +1085,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>6.138939900632968</v>
+        <v>7.579606155340136</v>
       </c>
       <c r="C47" t="n">
-        <v>6.24041720968654</v>
+        <v>7.696305314048868</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.1014773090535721</v>
+        <v>-0.116699158708732</v>
       </c>
     </row>
     <row r="48">
@@ -1099,13 +1099,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>6.153694606747292</v>
+        <v>7.596703396939466</v>
       </c>
       <c r="C48" t="n">
-        <v>6.162082467409966</v>
+        <v>7.654355699215708</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.008387860662673496</v>
+        <v>-0.0576523022762423</v>
       </c>
     </row>
     <row r="49">
@@ -1113,13 +1113,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>6.157581134944239</v>
+        <v>7.612500359761286</v>
       </c>
       <c r="C49" t="n">
-        <v>6.196660913324793</v>
+        <v>7.624108233153892</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.03907977838055388</v>
+        <v>-0.01160787339260594</v>
       </c>
     </row>
     <row r="50">
@@ -1127,13 +1127,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6.168807515407287</v>
+        <v>7.621855866192342</v>
       </c>
       <c r="C50" t="n">
-        <v>6.221734755361267</v>
+        <v>7.671396075787265</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.05292723995398063</v>
+        <v>-0.04954020959492311</v>
       </c>
     </row>
     <row r="51">
@@ -1141,13 +1141,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>6.17026571129123</v>
+        <v>7.639755830693706</v>
       </c>
       <c r="C51" t="n">
-        <v>6.27233973946185</v>
+        <v>7.650990549959069</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.1020740281706196</v>
+        <v>-0.01123471926536279</v>
       </c>
     </row>
     <row r="52">
@@ -1155,13 +1155,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>6.172731623670266</v>
+        <v>7.642050198330131</v>
       </c>
       <c r="C52" t="n">
-        <v>6.193785455101883</v>
+        <v>7.668365535107661</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.0210538314316171</v>
+        <v>-0.02631533677752973</v>
       </c>
     </row>
     <row r="53">
@@ -1169,13 +1169,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>6.186741340785131</v>
+        <v>7.650069071848904</v>
       </c>
       <c r="C53" t="n">
-        <v>6.269261772901269</v>
+        <v>7.670467636819303</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.08252043211613813</v>
+        <v>-0.0203985649703986</v>
       </c>
     </row>
     <row r="54">
@@ -1183,13 +1183,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>6.186907029261913</v>
+        <v>7.684350610374365</v>
       </c>
       <c r="C54" t="n">
-        <v>6.239693728250706</v>
+        <v>7.68980930510706</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.0527866989887924</v>
+        <v>-0.005458694732695335</v>
       </c>
     </row>
     <row r="55">
@@ -1197,13 +1197,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>6.187144661890087</v>
+        <v>9.773135303827241</v>
       </c>
       <c r="C55" t="n">
-        <v>6.258194788064372</v>
+        <v>9.806489871423935</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.07105012617428486</v>
+        <v>-0.0333545675966942</v>
       </c>
     </row>
     <row r="56">
@@ -1211,13 +1211,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>6.187633521437133</v>
+        <v>9.774867466613461</v>
       </c>
       <c r="C56" t="n">
-        <v>6.262401128126885</v>
+        <v>9.915232013079114</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.07476760668975135</v>
+        <v>-0.1403645464656531</v>
       </c>
     </row>
     <row r="57">
@@ -1225,13 +1225,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6.217469272303953</v>
+        <v>9.781128019673091</v>
       </c>
       <c r="C57" t="n">
-        <v>6.224936465091741</v>
+        <v>9.878333449499012</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.007467192787787624</v>
+        <v>-0.09720542982592129</v>
       </c>
     </row>
     <row r="58">
@@ -1239,13 +1239,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>6.228216996714518</v>
+        <v>9.787313539941401</v>
       </c>
       <c r="C58" t="n">
-        <v>6.235734124507212</v>
+        <v>9.834280400047181</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.007517127792694644</v>
+        <v>-0.04696686010577977</v>
       </c>
     </row>
     <row r="59">
@@ -1253,13 +1253,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>6.23102132535143</v>
+        <v>9.79250406506781</v>
       </c>
       <c r="C59" t="n">
-        <v>6.25565120738564</v>
+        <v>9.880857780691585</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.02462988203420924</v>
+        <v>-0.08835371562377503</v>
       </c>
     </row>
     <row r="60">
@@ -1267,13 +1267,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>6.394218414966706</v>
+        <v>9.803612482818378</v>
       </c>
       <c r="C60" t="n">
-        <v>6.244101283997935</v>
+        <v>9.885729419270453</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1501171309687708</v>
+        <v>-0.08211693645207419</v>
       </c>
     </row>
     <row r="61">
@@ -1281,13 +1281,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>8.162584820121586</v>
+        <v>9.813262399729423</v>
       </c>
       <c r="C61" t="n">
-        <v>8.182785853784079</v>
+        <v>9.868659417876263</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.02020103366249337</v>
+        <v>-0.05539701814683973</v>
       </c>
     </row>
     <row r="62">
@@ -1295,13 +1295,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>8.176206994695576</v>
+        <v>9.817333922701691</v>
       </c>
       <c r="C62" t="n">
-        <v>8.197725680281193</v>
+        <v>9.903408172278342</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.02151868558561709</v>
+        <v>-0.08607424957665089</v>
       </c>
     </row>
     <row r="63">
@@ -1309,13 +1309,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>8.188885357067713</v>
+        <v>9.841305960955655</v>
       </c>
       <c r="C63" t="n">
-        <v>8.218804715138395</v>
+        <v>9.9071374904174</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.02991935807068202</v>
+        <v>-0.06583152946174486</v>
       </c>
     </row>
     <row r="64">
@@ -1323,13 +1323,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>8.189847440418765</v>
+        <v>9.844732503305943</v>
       </c>
       <c r="C64" t="n">
-        <v>8.259752374575195</v>
+        <v>9.871055034612015</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.06990493415642973</v>
+        <v>-0.02632253130607154</v>
       </c>
     </row>
     <row r="65">
@@ -1337,13 +1337,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>8.192369267718608</v>
+        <v>9.99249303997461</v>
       </c>
       <c r="C65" t="n">
-        <v>8.298092326210938</v>
+        <v>10.08030932159901</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.1057230584923303</v>
+        <v>-0.08781628162440391</v>
       </c>
     </row>
     <row r="66">
@@ -1351,13 +1351,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>8.196506105507824</v>
+        <v>10.00073656828034</v>
       </c>
       <c r="C66" t="n">
-        <v>8.276092227957403</v>
+        <v>10.03322164117109</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.07958612244957841</v>
+        <v>-0.03248507289074354</v>
       </c>
     </row>
     <row r="67">
@@ -1365,13 +1365,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>8.203448662128926</v>
+        <v>10.0109529931708</v>
       </c>
       <c r="C67" t="n">
-        <v>8.260603154477735</v>
+        <v>10.12015497912188</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.05715449234880943</v>
+        <v>-0.1092019859510813</v>
       </c>
     </row>
     <row r="68">
@@ -1379,13 +1379,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>8.226318099789779</v>
+        <v>10.03558500188701</v>
       </c>
       <c r="C68" t="n">
-        <v>8.278699100995476</v>
+        <v>10.11496502658779</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.05238100120569733</v>
+        <v>-0.07938002470078409</v>
       </c>
     </row>
     <row r="69">
@@ -1393,13 +1393,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>8.249066135542591</v>
+        <v>10.06834986663601</v>
       </c>
       <c r="C69" t="n">
-        <v>8.292468817323114</v>
+        <v>10.07430064909323</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.0434026817805222</v>
+        <v>-0.005950782457219361</v>
       </c>
     </row>
     <row r="70">
@@ -1407,13 +1407,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>8.258762571518702</v>
+        <v>10.07058019888984</v>
       </c>
       <c r="C70" t="n">
-        <v>8.307350812386714</v>
+        <v>10.11362692208188</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.04858824086801228</v>
+        <v>-0.0430467231920435</v>
       </c>
     </row>
     <row r="71">
@@ -1421,13 +1421,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>10.38449485344609</v>
+        <v>10.07208983726656</v>
       </c>
       <c r="C71" t="n">
-        <v>10.3914148908282</v>
+        <v>10.09064847760055</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.006920037382109001</v>
+        <v>-0.01855864033398724</v>
       </c>
     </row>
     <row r="72">
@@ -1435,13 +1435,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>10.42487157760651</v>
+        <v>10.07917661317522</v>
       </c>
       <c r="C72" t="n">
-        <v>10.46637435994206</v>
+        <v>10.10686912627486</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.04150278233555049</v>
+        <v>-0.02769251309964815</v>
       </c>
     </row>
     <row r="73">
@@ -1449,13 +1449,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>10.42550317253723</v>
+        <v>10.09204696041012</v>
       </c>
       <c r="C73" t="n">
-        <v>10.44252405297088</v>
+        <v>10.10587327141772</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.01702088043365357</v>
+        <v>-0.01382631100760001</v>
       </c>
     </row>
     <row r="74">
@@ -1463,13 +1463,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>10.42570554633956</v>
+        <v>10.09315090205651</v>
       </c>
       <c r="C74" t="n">
-        <v>10.49648557144627</v>
+        <v>10.1331894488263</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.07078002510670522</v>
+        <v>-0.04003854676979302</v>
       </c>
     </row>
     <row r="75">
@@ -1477,13 +1477,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>10.44561893449453</v>
+        <v>10.09467316954088</v>
       </c>
       <c r="C75" t="n">
-        <v>10.47800187685751</v>
+        <v>10.14251614956368</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.032382942362986</v>
+        <v>-0.04784298002279463</v>
       </c>
     </row>
     <row r="76">
@@ -1491,13 +1491,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>10.45769150905882</v>
+        <v>10.55992338404024</v>
       </c>
       <c r="C76" t="n">
-        <v>10.5511969566798</v>
+        <v>10.13122247960439</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.09350544762098068</v>
+        <v>0.4287009044358445</v>
       </c>
     </row>
     <row r="77">
@@ -1505,13 +1505,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>10.46097550350386</v>
+        <v>12.6972145600215</v>
       </c>
       <c r="C77" t="n">
-        <v>10.48845686550572</v>
+        <v>12.78268777744729</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.02748136200185947</v>
+        <v>-0.08547321742578795</v>
       </c>
     </row>
     <row r="78">
@@ -1519,13 +1519,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>10.46730487952642</v>
+        <v>12.71056297627096</v>
       </c>
       <c r="C78" t="n">
-        <v>10.55852544325017</v>
+        <v>12.84857078730301</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.09122056372374665</v>
+        <v>-0.1380078110320486</v>
       </c>
     </row>
     <row r="79">
@@ -1533,13 +1533,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>10.47826078417206</v>
+        <v>12.71801421462767</v>
       </c>
       <c r="C79" t="n">
-        <v>10.55104759753365</v>
+        <v>12.77911491842188</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.07278681336159565</v>
+        <v>-0.06110070379420307</v>
       </c>
     </row>
     <row r="80">
@@ -1547,13 +1547,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>10.48132166710126</v>
+        <v>12.77964854620773</v>
       </c>
       <c r="C80" t="n">
-        <v>10.55354832280577</v>
+        <v>12.84080392102059</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.07222665570451525</v>
+        <v>-0.06115537481286282</v>
       </c>
     </row>
     <row r="81">
@@ -1561,13 +1561,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>10.49066702359928</v>
+        <v>12.81391831371356</v>
       </c>
       <c r="C81" t="n">
-        <v>10.52279483962188</v>
+        <v>12.82273862577621</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.03212781602259618</v>
+        <v>-0.00882031206264422</v>
       </c>
     </row>
     <row r="82">
@@ -1575,13 +1575,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>10.50218902388436</v>
+        <v>13.42647789041632</v>
       </c>
       <c r="C82" t="n">
-        <v>10.54478549052547</v>
+        <v>13.53499902102577</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.04259646664111472</v>
+        <v>-0.1085211306094536</v>
       </c>
     </row>
     <row r="83">
@@ -1589,13 +1589,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>13.07261740552221</v>
+        <v>13.43919037635048</v>
       </c>
       <c r="C83" t="n">
-        <v>13.1591741604143</v>
+        <v>13.4668248661642</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.08655675489209358</v>
+        <v>-0.02763448981371219</v>
       </c>
     </row>
     <row r="84">
@@ -1603,13 +1603,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>13.07381117273891</v>
+        <v>13.43921639297855</v>
       </c>
       <c r="C84" t="n">
-        <v>13.15115957401008</v>
+        <v>13.55224365917669</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.07734840127117337</v>
+        <v>-0.1130272661981309</v>
       </c>
     </row>
     <row r="85">
@@ -1617,13 +1617,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>13.09865595104887</v>
+        <v>13.46103307233704</v>
       </c>
       <c r="C85" t="n">
-        <v>13.20229593828305</v>
+        <v>13.51553426795011</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.1036399872341764</v>
+        <v>-0.05450119561307254</v>
       </c>
     </row>
     <row r="86">
@@ -1631,13 +1631,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>13.10452531953365</v>
+        <v>13.48910782689205</v>
       </c>
       <c r="C86" t="n">
-        <v>13.1173938297031</v>
+        <v>13.52566183038</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.01286851016944901</v>
+        <v>-0.03655400348795901</v>
       </c>
     </row>
     <row r="87">
@@ -1645,13 +1645,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>13.10619721758146</v>
+        <v>13.50030122107382</v>
       </c>
       <c r="C87" t="n">
-        <v>13.1177281304201</v>
+        <v>13.51924457206087</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.01153091283864427</v>
+        <v>-0.01894335098705291</v>
       </c>
     </row>
     <row r="88">
@@ -1659,13 +1659,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>13.14228745757086</v>
+        <v>13.50677812674628</v>
       </c>
       <c r="C88" t="n">
-        <v>13.17326233070056</v>
+        <v>13.56020999881975</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.0309748731297006</v>
+        <v>-0.05343187207346389</v>
       </c>
     </row>
     <row r="89">
@@ -1673,13 +1673,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>13.14737017761702</v>
+        <v>13.5181089882133</v>
       </c>
       <c r="C89" t="n">
-        <v>13.17699597593992</v>
+        <v>13.59634452026149</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.02962579832289514</v>
+        <v>-0.07823553204818268</v>
       </c>
     </row>
     <row r="90">
@@ -1687,13 +1687,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>14.64787603490739</v>
+        <v>13.54531690310844</v>
       </c>
       <c r="C90" t="n">
-        <v>14.75618369417669</v>
+        <v>13.57849388211381</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.1083076592692986</v>
+        <v>-0.03317697900536309</v>
       </c>
     </row>
     <row r="91">
@@ -1701,13 +1701,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>14.65573180328793</v>
+        <v>13.54667688665792</v>
       </c>
       <c r="C91" t="n">
-        <v>14.69019745092845</v>
+        <v>13.55620085871317</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.03446564764051985</v>
+        <v>-0.009523972055246688</v>
       </c>
     </row>
     <row r="92">
@@ -1715,13 +1715,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>14.65841598201287</v>
+        <v>13.54969587182941</v>
       </c>
       <c r="C92" t="n">
-        <v>14.75535839179798</v>
+        <v>13.59317372610228</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.09694240978511104</v>
+        <v>-0.04347785427287754</v>
       </c>
     </row>
     <row r="93">
@@ -1729,13 +1729,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>14.68808921004633</v>
+        <v>13.57377019604627</v>
       </c>
       <c r="C93" t="n">
-        <v>14.70628788654765</v>
+        <v>13.59530374339951</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.01819867650132245</v>
+        <v>-0.02153354735323987</v>
       </c>
     </row>
     <row r="94">
@@ -1743,13 +1743,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>14.69702589062493</v>
+        <v>18.1488568077331</v>
       </c>
       <c r="C94" t="n">
-        <v>14.72651201822369</v>
+        <v>18.27299776950645</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.02948612759876212</v>
+        <v>-0.1241409617733495</v>
       </c>
     </row>
     <row r="95">
@@ -1757,13 +1757,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>14.7462887057456</v>
+        <v>18.15497335081767</v>
       </c>
       <c r="C95" t="n">
-        <v>14.75656012189866</v>
+        <v>18.24744356201526</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.01027141615306171</v>
+        <v>-0.09247021119759324</v>
       </c>
     </row>
     <row r="96">
@@ -1771,13 +1771,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>16.12488421282541</v>
+        <v>18.17899411125191</v>
       </c>
       <c r="C96" t="n">
-        <v>16.14123650532227</v>
+        <v>18.24619629284962</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.01635229249686532</v>
+        <v>-0.06720218159771107</v>
       </c>
     </row>
     <row r="97">
@@ -1785,13 +1785,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>16.12761095664657</v>
+        <v>18.18934787578957</v>
       </c>
       <c r="C97" t="n">
-        <v>16.15481455762961</v>
+        <v>18.24266099507943</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.02720360098303942</v>
+        <v>-0.05331311928986437</v>
       </c>
     </row>
     <row r="98">
@@ -1799,13 +1799,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>16.13888131708161</v>
+        <v>18.29081660636854</v>
       </c>
       <c r="C98" t="n">
-        <v>16.2175465544992</v>
+        <v>18.29316181929687</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.07866523741758868</v>
+        <v>-0.002345212928329232</v>
       </c>
     </row>
     <row r="99">
@@ -1813,13 +1813,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>16.14225525312622</v>
+        <v>18.69251809161679</v>
       </c>
       <c r="C99" t="n">
-        <v>16.25065334112908</v>
+        <v>18.73549176801269</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.1083980880028577</v>
+        <v>-0.04297367639589567</v>
       </c>
     </row>
     <row r="100">
@@ -1827,13 +1827,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>16.15087394665335</v>
+        <v>18.70673483901585</v>
       </c>
       <c r="C100" t="n">
-        <v>16.25232447727722</v>
+        <v>18.78738091849542</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.1014505306238718</v>
+        <v>-0.08064607947957114</v>
       </c>
     </row>
     <row r="101">
@@ -1841,13 +1841,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>16.15735401838364</v>
+        <v>18.70980162941933</v>
       </c>
       <c r="C101" t="n">
-        <v>16.16838005808691</v>
+        <v>18.77578569436861</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.01102603970326399</v>
+        <v>-0.06598406494927644</v>
       </c>
     </row>
     <row r="102">
@@ -1855,13 +1855,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>16.16797606598475</v>
+        <v>18.72408617817215</v>
       </c>
       <c r="C102" t="n">
-        <v>16.23471330880495</v>
+        <v>18.80083204501116</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.06673724282020288</v>
+        <v>-0.07674586683900486</v>
       </c>
     </row>
     <row r="103">
@@ -1869,13 +1869,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>16.1690388007455</v>
+        <v>18.73234571836603</v>
       </c>
       <c r="C103" t="n">
-        <v>16.20225138327082</v>
+        <v>18.82993058495943</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.03321258252532289</v>
+        <v>-0.09758486659340093</v>
       </c>
     </row>
     <row r="104">
@@ -1883,13 +1883,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>16.18942006119258</v>
+        <v>18.73944878094143</v>
       </c>
       <c r="C104" t="n">
-        <v>16.24728536394652</v>
+        <v>18.78785494164131</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.05786530275394242</v>
+        <v>-0.04840616069988002</v>
       </c>
     </row>
     <row r="105">
@@ -1897,13 +1897,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>16.2115545241436</v>
+        <v>18.75516151492123</v>
       </c>
       <c r="C105" t="n">
-        <v>16.23367398167336</v>
+        <v>18.77525416575584</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.02211945752975808</v>
+        <v>-0.02009265083460932</v>
       </c>
     </row>
     <row r="106">
@@ -1911,13 +1911,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>16.21897625068984</v>
+        <v>18.78303702270251</v>
       </c>
       <c r="C106" t="n">
-        <v>16.21937628892047</v>
+        <v>18.78967563018602</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.0004000382306301731</v>
+        <v>-0.00663860748351297</v>
       </c>
     </row>
     <row r="107">
@@ -1925,13 +1925,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>19.64763286279821</v>
+        <v>18.78401280299304</v>
       </c>
       <c r="C107" t="n">
-        <v>19.76463440842416</v>
+        <v>18.82404236621332</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.1170015456259499</v>
+        <v>-0.04002956322027984</v>
       </c>
     </row>
     <row r="108">
@@ -1939,13 +1939,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>19.68273236204993</v>
+        <v>18.7882059532167</v>
       </c>
       <c r="C108" t="n">
-        <v>19.82532566433817</v>
+        <v>18.79708870446734</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.1425933022882475</v>
+        <v>-0.008882751250638421</v>
       </c>
     </row>
     <row r="109">
@@ -1953,13 +1953,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>19.68922985120303</v>
+        <v>18.80749368674383</v>
       </c>
       <c r="C109" t="n">
-        <v>19.72343724995149</v>
+        <v>18.88097723331014</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.03420739874845324</v>
+        <v>-0.07348354656630818</v>
       </c>
     </row>
     <row r="110">
@@ -1967,13 +1967,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>19.69208728902896</v>
+        <v>18.8255752136608</v>
       </c>
       <c r="C110" t="n">
-        <v>19.70260473386053</v>
+        <v>18.89843273938448</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.01051744483156369</v>
+        <v>-0.07285752572367343</v>
       </c>
     </row>
     <row r="111">
@@ -1981,13 +1981,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>19.69796722914602</v>
+        <v>18.84208360291822</v>
       </c>
       <c r="C111" t="n">
-        <v>19.7693105432292</v>
+        <v>18.88718322918952</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.07134331408318317</v>
+        <v>-0.04509962627130193</v>
       </c>
     </row>
     <row r="112">
@@ -1995,13 +1995,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>19.6997375275521</v>
+        <v>18.89103598749462</v>
       </c>
       <c r="C112" t="n">
-        <v>19.73222855327166</v>
+        <v>18.92275797293588</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.03249102571955831</v>
+        <v>-0.03172198544126559</v>
       </c>
     </row>
     <row r="113">
@@ -2009,13 +2009,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>19.71257016553652</v>
+        <v>18.89893294973411</v>
       </c>
       <c r="C113" t="n">
-        <v>19.82361093427426</v>
+        <v>18.9267232973341</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.111040768737741</v>
+        <v>-0.02779034759999632</v>
       </c>
     </row>
     <row r="114">
@@ -2023,13 +2023,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>19.75912090486144</v>
+        <v>20.22404040783911</v>
       </c>
       <c r="C114" t="n">
-        <v>19.77907269230103</v>
+        <v>20.31320048946519</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.01995178743958803</v>
+        <v>-0.0891600816260798</v>
       </c>
     </row>
     <row r="115">
@@ -2037,13 +2037,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>19.78613026840128</v>
+        <v>20.24550132174657</v>
       </c>
       <c r="C115" t="n">
-        <v>19.82136334227909</v>
+        <v>20.28752848330794</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.03523307387780861</v>
+        <v>-0.04202716156136788</v>
       </c>
     </row>
     <row r="116">
@@ -2051,13 +2051,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>19.79578391463104</v>
+        <v>20.2473159514705</v>
       </c>
       <c r="C116" t="n">
-        <v>19.82419507608781</v>
+        <v>20.27133698033903</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.02841116145676992</v>
+        <v>-0.02402102886853186</v>
       </c>
     </row>
     <row r="117">
@@ -2065,13 +2065,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>20.27411666771365</v>
+        <v>20.26276243386941</v>
       </c>
       <c r="C117" t="n">
-        <v>20.39600735750908</v>
+        <v>20.28752984473667</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.1218906897954284</v>
+        <v>-0.02476741086726264</v>
       </c>
     </row>
     <row r="118">
@@ -2079,13 +2079,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>20.33042672892886</v>
+        <v>20.26515140488871</v>
       </c>
       <c r="C118" t="n">
-        <v>20.35537545290573</v>
+        <v>20.34091162221041</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.02494872397687686</v>
+        <v>-0.07576021732170446</v>
       </c>
     </row>
     <row r="119">
@@ -2093,13 +2093,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>20.33899337149153</v>
+        <v>20.26896423872295</v>
       </c>
       <c r="C119" t="n">
-        <v>20.37489044248897</v>
+        <v>20.28901304430815</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.03589707099743578</v>
+        <v>-0.02004880558520128</v>
       </c>
     </row>
     <row r="120">
@@ -2107,13 +2107,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>20.33926148687812</v>
+        <v>20.29269820175547</v>
       </c>
       <c r="C120" t="n">
-        <v>20.35306932540016</v>
+        <v>20.32053853050432</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.01380783852204104</v>
+        <v>-0.02784032874884801</v>
       </c>
     </row>
     <row r="121">
@@ -2121,13 +2121,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>20.34274383016696</v>
+        <v>20.29284793574165</v>
       </c>
       <c r="C121" t="n">
-        <v>20.42634277981704</v>
+        <v>20.29334897999155</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.08359894965008152</v>
+        <v>-0.0005010442499013834</v>
       </c>
     </row>
     <row r="122">
@@ -2135,13 +2135,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>20.34373207080733</v>
+        <v>20.29537986949128</v>
       </c>
       <c r="C122" t="n">
-        <v>20.4565881973048</v>
+        <v>20.33480452364497</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.1128561264974763</v>
+        <v>-0.0394246541536809</v>
       </c>
     </row>
     <row r="123">
@@ -2149,13 +2149,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>20.3598411806127</v>
+        <v>20.30316176995298</v>
       </c>
       <c r="C123" t="n">
-        <v>20.36171051750095</v>
+        <v>20.31662615091376</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.001869336888251638</v>
+        <v>-0.01346438096078373</v>
       </c>
     </row>
     <row r="124">
@@ -2163,13 +2163,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>20.36252082451322</v>
+        <v>20.31263524420845</v>
       </c>
       <c r="C124" t="n">
-        <v>20.37073814430816</v>
+        <v>20.32250510849431</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.008217319794944444</v>
+        <v>-0.009869864285857233</v>
       </c>
     </row>
     <row r="125">
@@ -2177,13 +2177,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>20.36355972384558</v>
+        <v>20.32539918938588</v>
       </c>
       <c r="C125" t="n">
-        <v>20.43596539466523</v>
+        <v>20.34951139300669</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.0724056708196521</v>
+        <v>-0.02411220362080968</v>
       </c>
     </row>
     <row r="126">
@@ -2191,13 +2191,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>20.41930749231748</v>
+        <v>20.32614730482448</v>
       </c>
       <c r="C126" t="n">
-        <v>20.44147514896809</v>
+        <v>20.34910172269936</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.02216765665061615</v>
+        <v>-0.02295441787487107</v>
       </c>
     </row>
     <row r="127">
@@ -2205,13 +2205,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>23.16898151705697</v>
+        <v>20.33432137110778</v>
       </c>
       <c r="C127" t="n">
-        <v>23.22607280173855</v>
+        <v>20.35872017643134</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.05709128468158653</v>
+        <v>-0.02439880532355687</v>
       </c>
     </row>
     <row r="128">
@@ -2219,13 +2219,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>23.18149778985265</v>
+        <v>21.92315156656269</v>
       </c>
       <c r="C128" t="n">
-        <v>23.33150853874057</v>
+        <v>22.06549800844048</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.1500107488879188</v>
+        <v>-0.1423464418777947</v>
       </c>
     </row>
     <row r="129">
@@ -2233,13 +2233,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>23.21890610782638</v>
+        <v>21.93675775741549</v>
       </c>
       <c r="C129" t="n">
-        <v>23.28812296103695</v>
+        <v>22.04228187072071</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.0692168532105697</v>
+        <v>-0.105524113305222</v>
       </c>
     </row>
     <row r="130">
@@ -2247,13 +2247,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>23.23510278056587</v>
+        <v>21.95241282988583</v>
       </c>
       <c r="C130" t="n">
-        <v>23.26861207083301</v>
+        <v>22.00952401028999</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.033509290267137</v>
+        <v>-0.05711118040416707</v>
       </c>
     </row>
     <row r="131">
@@ -2261,13 +2261,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>23.24326674914736</v>
+        <v>21.99655093544908</v>
       </c>
       <c r="C131" t="n">
-        <v>23.32522326877398</v>
+        <v>22.00415077901523</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.08195651962662254</v>
+        <v>-0.007599843566151065</v>
       </c>
     </row>
     <row r="132">
@@ -2275,13 +2275,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>23.24383628855839</v>
+        <v>22.04701364816421</v>
       </c>
       <c r="C132" t="n">
-        <v>23.25218300135548</v>
+        <v>22.04799067288798</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.008346712797081324</v>
+        <v>-0.00097702472377037</v>
       </c>
     </row>
     <row r="133">
@@ -2289,13 +2289,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>23.25863268088324</v>
+        <v>23.3701049791477</v>
       </c>
       <c r="C133" t="n">
-        <v>23.28579636931504</v>
+        <v>23.51279877629156</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.02716368843180561</v>
+        <v>-0.1426937971438669</v>
       </c>
     </row>
     <row r="134">
@@ -2303,13 +2303,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>23.26168933456111</v>
+        <v>23.400110073808</v>
       </c>
       <c r="C134" t="n">
-        <v>23.27992914197518</v>
+        <v>23.5023116535015</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.01823980741407283</v>
+        <v>-0.1022015796934994</v>
       </c>
     </row>
     <row r="135">
@@ -2317,13 +2317,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>23.27140606730502</v>
+        <v>23.4176922912001</v>
       </c>
       <c r="C135" t="n">
-        <v>23.30673629967249</v>
+        <v>23.42246406943133</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.03533023236746757</v>
+        <v>-0.004771778231233981</v>
       </c>
     </row>
     <row r="136">
@@ -2331,13 +2331,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>23.27143604271945</v>
+        <v>23.42359501628723</v>
       </c>
       <c r="C136" t="n">
-        <v>23.31237093676926</v>
+        <v>23.4466513483509</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.04093489404981554</v>
+        <v>-0.02305633206367119</v>
       </c>
     </row>
     <row r="137">
@@ -2345,13 +2345,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>23.27243499013748</v>
+        <v>23.43092786594624</v>
       </c>
       <c r="C137" t="n">
-        <v>23.30617913142061</v>
+        <v>23.45005174224389</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.03374414128312608</v>
+        <v>-0.01912387629764467</v>
       </c>
     </row>
     <row r="138">
@@ -2359,13 +2359,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>23.28390546600538</v>
+        <v>23.43304101600086</v>
       </c>
       <c r="C138" t="n">
-        <v>23.34017787962105</v>
+        <v>23.51922025279875</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.05627241361566959</v>
+        <v>-0.0861792367978893</v>
       </c>
     </row>
     <row r="139">
@@ -2373,13 +2373,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>23.30305185798578</v>
+        <v>23.4524134781586</v>
       </c>
       <c r="C139" t="n">
-        <v>23.32216014394402</v>
+        <v>23.48390036991002</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.01910828595824299</v>
+        <v>-0.03148689175141683</v>
       </c>
     </row>
     <row r="140">
@@ -2387,13 +2387,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>23.32034061008824</v>
+        <v>23.45714824784624</v>
       </c>
       <c r="C140" t="n">
-        <v>23.3242039520147</v>
+        <v>23.52912726814092</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.003863341926457764</v>
+        <v>-0.07197902029467684</v>
       </c>
     </row>
     <row r="141">
@@ -2401,13 +2401,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>26.91884600410243</v>
+        <v>23.47394361526146</v>
       </c>
       <c r="C141" t="n">
-        <v>27.06045265188511</v>
+        <v>23.45770132602455</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.1416066477826838</v>
+        <v>0.01624228923691362</v>
       </c>
     </row>
     <row r="142">
@@ -2415,13 +2415,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>26.9245452362318</v>
+        <v>23.48014746209395</v>
       </c>
       <c r="C142" t="n">
-        <v>27.08490320063074</v>
+        <v>23.49399488555753</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.1603579643989406</v>
+        <v>-0.01384742346357726</v>
       </c>
     </row>
     <row r="143">
@@ -2429,13 +2429,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>26.93417750647033</v>
+        <v>23.49290297013528</v>
       </c>
       <c r="C143" t="n">
-        <v>27.03805400711124</v>
+        <v>23.49834419495796</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.103876500640915</v>
+        <v>-0.005441224822678947</v>
       </c>
     </row>
     <row r="144">
@@ -2443,13 +2443,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>26.96045946630961</v>
+        <v>23.49638922270025</v>
       </c>
       <c r="C144" t="n">
-        <v>27.06426792645494</v>
+        <v>23.50427394001828</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.1038084601453342</v>
+        <v>-0.00788471731803142</v>
       </c>
     </row>
     <row r="145">
@@ -2457,13 +2457,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>26.96738286863889</v>
+        <v>23.53637829587428</v>
       </c>
       <c r="C145" t="n">
-        <v>27.03924491316247</v>
+        <v>23.53795992439586</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.07186204452358069</v>
+        <v>-0.00158162852158128</v>
       </c>
     </row>
     <row r="146">
@@ -2471,13 +2471,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>26.9835315832051</v>
+        <v>23.61459122313038</v>
       </c>
       <c r="C146" t="n">
-        <v>27.0112083538475</v>
+        <v>23.47809327192708</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.02767677064240814</v>
+        <v>0.136497951203296</v>
       </c>
     </row>
     <row r="147">
@@ -2485,13 +2485,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>26.99249895931003</v>
+        <v>28.56758044310185</v>
       </c>
       <c r="C147" t="n">
-        <v>27.01693381655311</v>
+        <v>28.65426449333509</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.02443485724307948</v>
+        <v>-0.08668405023324866</v>
       </c>
     </row>
     <row r="148">
@@ -2499,13 +2499,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>27.01113336634861</v>
+        <v>28.57505002660082</v>
       </c>
       <c r="C148" t="n">
-        <v>27.01329059991508</v>
+        <v>28.71789859711407</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.002157233566464356</v>
+        <v>-0.1428485705132481</v>
       </c>
     </row>
     <row r="149">
@@ -2513,13 +2513,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>27.01422271230763</v>
+        <v>28.60507501937661</v>
       </c>
       <c r="C149" t="n">
-        <v>27.03905268304607</v>
+        <v>28.64192347656319</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.02482997073844118</v>
+        <v>-0.03684845718657925</v>
       </c>
     </row>
     <row r="150">
@@ -2527,13 +2527,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>27.02847331744622</v>
+        <v>28.61321329645993</v>
       </c>
       <c r="C150" t="n">
-        <v>27.09202357455937</v>
+        <v>28.63544085626093</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.06355025711315676</v>
+        <v>-0.02222755980100288</v>
       </c>
     </row>
     <row r="151">
@@ -2541,13 +2541,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>27.03121809857533</v>
+        <v>28.61399442879771</v>
       </c>
       <c r="C151" t="n">
-        <v>27.09181890075789</v>
+        <v>28.69096679746466</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.06060080218256303</v>
+        <v>-0.07697236866694368</v>
       </c>
     </row>
     <row r="152">
@@ -2555,13 +2555,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>27.03800188188969</v>
+        <v>28.62279474649894</v>
       </c>
       <c r="C152" t="n">
-        <v>27.06078910749798</v>
+        <v>28.7031496689169</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.02278722560829038</v>
+        <v>-0.08035492241795694</v>
       </c>
     </row>
     <row r="153">
@@ -2569,13 +2569,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>27.04827294658628</v>
+        <v>28.64780936529135</v>
       </c>
       <c r="C153" t="n">
-        <v>27.06859563844369</v>
+        <v>28.69677196295259</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.02032269185740176</v>
+        <v>-0.04896259766123379</v>
       </c>
     </row>
     <row r="154">
@@ -2583,13 +2583,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>27.06473637610007</v>
+        <v>28.65550791594437</v>
       </c>
       <c r="C154" t="n">
-        <v>27.10405465796143</v>
+        <v>28.67199664563505</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.03931828186135533</v>
+        <v>-0.01648872969068549</v>
       </c>
     </row>
     <row r="155">
@@ -2597,13 +2597,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>27.0800908543355</v>
+        <v>28.70162486072332</v>
       </c>
       <c r="C155" t="n">
-        <v>27.08692314916276</v>
+        <v>28.70329279715975</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.006832294827265883</v>
+        <v>-0.00166793643643004</v>
       </c>
     </row>
     <row r="156">
@@ -2611,13 +2611,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>28.63364956742913</v>
+        <v>30.2777300501706</v>
       </c>
       <c r="C156" t="n">
-        <v>28.71257547322611</v>
+        <v>30.41608258267012</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.07892590579697512</v>
+        <v>-0.1383525324995247</v>
       </c>
     </row>
     <row r="157">
@@ -2625,13 +2625,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>28.66904399083911</v>
+        <v>30.31210577387362</v>
       </c>
       <c r="C157" t="n">
-        <v>28.74459789145815</v>
+        <v>30.31746814533037</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.07555390061903466</v>
+        <v>-0.005362371456751447</v>
       </c>
     </row>
     <row r="158">
@@ -2639,13 +2639,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>28.67708727920398</v>
+        <v>30.3281642824007</v>
       </c>
       <c r="C158" t="n">
-        <v>28.76051209219877</v>
+        <v>30.44081801995907</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.08342481299478877</v>
+        <v>-0.1126537375583716</v>
       </c>
     </row>
     <row r="159">
@@ -2653,13 +2653,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>28.6798133722089</v>
+        <v>30.332935100395</v>
       </c>
       <c r="C159" t="n">
-        <v>28.71281101363913</v>
+        <v>30.39970449000337</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.03299764143022799</v>
+        <v>-0.06676938960837475</v>
       </c>
     </row>
     <row r="160">
@@ -2667,13 +2667,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>28.68491805315799</v>
+        <v>30.34844207190426</v>
       </c>
       <c r="C160" t="n">
-        <v>28.78231577846466</v>
+        <v>30.41950520990691</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.09739772530666713</v>
+        <v>-0.0710631380026463</v>
       </c>
     </row>
     <row r="161">
@@ -2681,13 +2681,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>28.70067022263184</v>
+        <v>30.34999258236576</v>
       </c>
       <c r="C161" t="n">
-        <v>28.75736661279689</v>
+        <v>30.36432979984297</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.05669639016505101</v>
+        <v>-0.0143372174772054</v>
       </c>
     </row>
     <row r="162">
@@ -2695,13 +2695,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>28.70628789883517</v>
+        <v>30.36333146282763</v>
       </c>
       <c r="C162" t="n">
-        <v>28.74477256638855</v>
+        <v>30.38659436667282</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.03848466755337654</v>
+        <v>-0.02326290384518614</v>
       </c>
     </row>
     <row r="163">
@@ -2709,13 +2709,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>28.70963145194062</v>
+        <v>30.36399362219167</v>
       </c>
       <c r="C163" t="n">
-        <v>28.79201649703349</v>
+        <v>30.37044942599175</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.0823850450928667</v>
+        <v>-0.006455803800072601</v>
       </c>
     </row>
     <row r="164">
@@ -2723,13 +2723,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>28.71138032563789</v>
+        <v>30.37627982804546</v>
       </c>
       <c r="C164" t="n">
-        <v>28.77522158518399</v>
+        <v>30.44162029420423</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.06384125954609843</v>
+        <v>-0.06534046615877287</v>
       </c>
     </row>
     <row r="165">
@@ -2737,13 +2737,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>28.74158692383681</v>
+        <v>30.42598665744163</v>
       </c>
       <c r="C165" t="n">
-        <v>28.74252654414006</v>
+        <v>30.44377800686303</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.0009396203032494554</v>
+        <v>-0.01779134942139393</v>
       </c>
     </row>
     <row r="166">
@@ -2751,13 +2751,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>28.74576741856711</v>
+        <v>30.42964266153173</v>
       </c>
       <c r="C166" t="n">
-        <v>28.78099197198641</v>
+        <v>30.43170745282371</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.03522455341929742</v>
+        <v>-0.002064791291978452</v>
       </c>
     </row>
     <row r="167">
@@ -2765,13 +2765,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>28.94170694087259</v>
+        <v>32.59867690306714</v>
       </c>
       <c r="C167" t="n">
-        <v>28.71340852754959</v>
+        <v>32.6214900610836</v>
       </c>
       <c r="D167" t="n">
-        <v>0.2282984133229995</v>
+        <v>-0.02281315801646144</v>
       </c>
     </row>
     <row r="168">
@@ -2779,13 +2779,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>34.36773136864148</v>
+        <v>32.62905803449244</v>
       </c>
       <c r="C168" t="n">
-        <v>34.49892030419679</v>
+        <v>32.7051865040572</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.1311889355553078</v>
+        <v>-0.07612846956475749</v>
       </c>
     </row>
     <row r="169">
@@ -2793,13 +2793,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>34.39162925625234</v>
+        <v>32.63096724045934</v>
       </c>
       <c r="C169" t="n">
-        <v>34.52506444452971</v>
+        <v>32.64642908502707</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.1334351882773746</v>
+        <v>-0.01546184456773148</v>
       </c>
     </row>
     <row r="170">
@@ -2807,13 +2807,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>34.39235472687812</v>
+        <v>32.63267596320874</v>
       </c>
       <c r="C170" t="n">
-        <v>34.44017936775484</v>
+        <v>32.71104397724153</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.04782464087672622</v>
+        <v>-0.07836801403279026</v>
       </c>
     </row>
     <row r="171">
@@ -2821,13 +2821,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>34.41294174433878</v>
+        <v>32.6333819200124</v>
       </c>
       <c r="C171" t="n">
-        <v>34.44462238149222</v>
+        <v>32.70285333950125</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.0316806371534355</v>
+        <v>-0.06947141948884195</v>
       </c>
     </row>
     <row r="172">
@@ -2835,13 +2835,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>34.43251413929168</v>
+        <v>32.64380294701137</v>
       </c>
       <c r="C172" t="n">
-        <v>34.48810848642815</v>
+        <v>32.69567181026407</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.05559434713646993</v>
+        <v>-0.05186886325270734</v>
       </c>
     </row>
     <row r="173">
@@ -2849,13 +2849,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>34.44162913449283</v>
+        <v>32.65373746733</v>
       </c>
       <c r="C173" t="n">
-        <v>34.47707160270267</v>
+        <v>32.72347094858874</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.03544246820983687</v>
+        <v>-0.06973348125874423</v>
       </c>
     </row>
     <row r="174">
@@ -2863,13 +2863,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>34.44245578677326</v>
+        <v>32.67065882269994</v>
       </c>
       <c r="C174" t="n">
-        <v>34.46144938018277</v>
+        <v>32.68132431484193</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.01899359340951179</v>
+        <v>-0.01066549214198886</v>
       </c>
     </row>
     <row r="175">
@@ -2877,13 +2877,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>34.45012376479299</v>
+        <v>32.67416700113989</v>
       </c>
       <c r="C175" t="n">
-        <v>34.50885796282768</v>
+        <v>32.72374114666698</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.05873419803469204</v>
+        <v>-0.04957414552708883</v>
       </c>
     </row>
     <row r="176">
@@ -2891,13 +2891,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>34.4602413321514</v>
+        <v>32.67473832119718</v>
       </c>
       <c r="C176" t="n">
-        <v>34.5073246363218</v>
+        <v>32.73822821686709</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.04708330417039264</v>
+        <v>-0.06348989566991037</v>
       </c>
     </row>
     <row r="177">
@@ -2905,13 +2905,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>34.49632225274588</v>
+        <v>32.67539071764729</v>
       </c>
       <c r="C177" t="n">
-        <v>34.5293684823797</v>
+        <v>32.71368558774936</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.03304622963382542</v>
+        <v>-0.03829487010207089</v>
       </c>
     </row>
     <row r="178">
@@ -2919,13 +2919,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>34.50904724123712</v>
+        <v>32.67677005652077</v>
       </c>
       <c r="C178" t="n">
-        <v>34.51665138436257</v>
+        <v>32.7293039748736</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.007604143125448104</v>
+        <v>-0.05253391835283594</v>
       </c>
     </row>
     <row r="179">
@@ -2933,13 +2933,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>34.51814204494907</v>
+        <v>32.67926806916734</v>
       </c>
       <c r="C179" t="n">
-        <v>34.52572242404647</v>
+        <v>32.72225339594676</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.007580379097397838</v>
+        <v>-0.0429853267794158</v>
       </c>
     </row>
     <row r="180">
@@ -2947,13 +2947,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>34.5494635670489</v>
+        <v>32.68324704563135</v>
       </c>
       <c r="C180" t="n">
-        <v>34.51139725770154</v>
+        <v>32.78295315581475</v>
       </c>
       <c r="D180" t="n">
-        <v>0.03806630934735722</v>
+        <v>-0.09970611018339781</v>
       </c>
     </row>
     <row r="181">
@@ -2961,13 +2961,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>34.66284679451352</v>
+        <v>32.68631422510158</v>
       </c>
       <c r="C181" t="n">
-        <v>34.5256396420864</v>
+        <v>32.70588708685342</v>
       </c>
       <c r="D181" t="n">
-        <v>0.1372071524271234</v>
+        <v>-0.01957286175183981</v>
       </c>
     </row>
     <row r="182">
@@ -2975,13 +2975,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>36.91773164438845</v>
+        <v>32.70179221911422</v>
       </c>
       <c r="C182" t="n">
-        <v>37.0288661387491</v>
+        <v>32.80864767728816</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.1111344943606483</v>
+        <v>-0.106855458173932</v>
       </c>
     </row>
     <row r="183">
@@ -2989,13 +2989,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>36.96021924399773</v>
+        <v>32.73946327942312</v>
       </c>
       <c r="C183" t="n">
-        <v>37.00252806582488</v>
+        <v>32.74349280101259</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.04230882182714879</v>
+        <v>-0.004029521589465901</v>
       </c>
     </row>
     <row r="184">
@@ -3003,13 +3003,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>36.96506414995883</v>
+        <v>32.78488933939552</v>
       </c>
       <c r="C184" t="n">
-        <v>37.0607074756802</v>
+        <v>32.78829772010072</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.09564332572137602</v>
+        <v>-0.003408380705195668</v>
       </c>
     </row>
     <row r="185">
@@ -3017,13 +3017,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>36.99885081113906</v>
+        <v>32.78537514284557</v>
       </c>
       <c r="C185" t="n">
-        <v>37.05621054510208</v>
+        <v>32.81371120845167</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.05735973396301119</v>
+        <v>-0.0283360656060978</v>
       </c>
     </row>
     <row r="186">
@@ -3031,13 +3031,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>37.01077370467372</v>
+        <v>40.10281413123743</v>
       </c>
       <c r="C186" t="n">
-        <v>37.03693838310762</v>
+        <v>40.18978466688969</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.02616467843389358</v>
+        <v>-0.08697053565226298</v>
       </c>
     </row>
     <row r="187">
@@ -3045,13 +3045,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>37.01965712450048</v>
+        <v>40.10322926473133</v>
       </c>
       <c r="C187" t="n">
-        <v>37.06614221041663</v>
+        <v>40.12700991813291</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.04648508591615297</v>
+        <v>-0.02378065340158031</v>
       </c>
     </row>
     <row r="188">
@@ -3059,13 +3059,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>37.04040698447731</v>
+        <v>40.13613369852609</v>
       </c>
       <c r="C188" t="n">
-        <v>37.05692993711096</v>
+        <v>40.14640891284569</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.01652295263364323</v>
+        <v>-0.01027521431959855</v>
       </c>
     </row>
     <row r="189">
@@ -3073,13 +3073,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>37.0533877458222</v>
+        <v>40.16345333214813</v>
       </c>
       <c r="C189" t="n">
-        <v>37.05416585026275</v>
+        <v>40.2225645817483</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.0007781044405490434</v>
+        <v>-0.05911124960017133</v>
       </c>
     </row>
     <row r="190">
@@ -3087,13 +3087,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>42.75497414354601</v>
+        <v>40.16361210347208</v>
       </c>
       <c r="C190" t="n">
-        <v>42.88478407872704</v>
+        <v>40.22593494616547</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.1298099351810293</v>
+        <v>-0.06232284269339772</v>
       </c>
     </row>
     <row r="191">
@@ -3101,13 +3101,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>42.76983260389304</v>
+        <v>40.20928467167986</v>
       </c>
       <c r="C191" t="n">
-        <v>42.88841758521171</v>
+        <v>40.2296003490601</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.1185849813186621</v>
+        <v>-0.02031567738023909</v>
       </c>
     </row>
     <row r="192">
@@ -3115,13 +3115,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>42.80380959830398</v>
+        <v>40.22669657333154</v>
       </c>
       <c r="C192" t="n">
-        <v>42.88848654263758</v>
+        <v>40.2755512454231</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.08467694433360151</v>
+        <v>-0.04885467209155792</v>
       </c>
     </row>
     <row r="193">
@@ -3129,13 +3129,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>42.83592067289656</v>
+        <v>40.23095004788972</v>
       </c>
       <c r="C193" t="n">
-        <v>42.90185817941995</v>
+        <v>40.28268362980046</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.06593750652339025</v>
+        <v>-0.05173358191073874</v>
       </c>
     </row>
     <row r="194">
@@ -3143,13 +3143,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>42.87547358443953</v>
+        <v>40.23159527633311</v>
       </c>
       <c r="C194" t="n">
-        <v>42.88340298277615</v>
+        <v>40.24710903507756</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.007929398336621318</v>
+        <v>-0.01551375874444716</v>
       </c>
     </row>
     <row r="195">
@@ -3157,13 +3157,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>42.88788534748456</v>
+        <v>40.25582212794549</v>
       </c>
       <c r="C195" t="n">
-        <v>42.90260971479063</v>
+        <v>40.38338723988812</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.01472436730607285</v>
+        <v>-0.1275651119426229</v>
       </c>
     </row>
     <row r="196">
@@ -3171,13 +3171,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>42.89304218866122</v>
+        <v>40.26202804406165</v>
       </c>
       <c r="C196" t="n">
-        <v>42.89835241434216</v>
+        <v>40.28809405254599</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.005310225680936753</v>
+        <v>-0.02606600848434226</v>
       </c>
     </row>
     <row r="197">
@@ -3185,13 +3185,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>44.11140057859961</v>
+        <v>40.26365029402269</v>
       </c>
       <c r="C197" t="n">
-        <v>44.21776052316261</v>
+        <v>40.29380168910326</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.1063599445630032</v>
+        <v>-0.03015139508057274</v>
       </c>
     </row>
     <row r="198">
@@ -3199,13 +3199,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>44.12132647004581</v>
+        <v>40.2691537911023</v>
       </c>
       <c r="C198" t="n">
-        <v>44.23555679273714</v>
+        <v>40.34013165082431</v>
       </c>
       <c r="D198" t="n">
-        <v>-0.1142303226913342</v>
+        <v>-0.07097785972201365</v>
       </c>
     </row>
     <row r="199">
@@ -3213,13 +3213,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>44.13009854434757</v>
+        <v>40.27450493950102</v>
       </c>
       <c r="C199" t="n">
-        <v>44.145587015</v>
+        <v>40.35641329730959</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.01548847065242853</v>
+        <v>-0.08190835780856531</v>
       </c>
     </row>
     <row r="200">
@@ -3227,13 +3227,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>44.14502136526282</v>
+        <v>40.2748490017927</v>
       </c>
       <c r="C200" t="n">
-        <v>44.15877945871982</v>
+        <v>40.33057666493443</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.01375809345699963</v>
+        <v>-0.05572766314172384</v>
       </c>
     </row>
     <row r="201">
@@ -3241,13 +3241,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>44.17527213276713</v>
+        <v>40.27763790002835</v>
       </c>
       <c r="C201" t="n">
-        <v>44.24877340776222</v>
+        <v>40.31477890077432</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.0735012749950954</v>
+        <v>-0.03714100074596871</v>
       </c>
     </row>
     <row r="202">
@@ -3255,13 +3255,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>44.17843542671408</v>
+        <v>40.29013637170181</v>
       </c>
       <c r="C202" t="n">
-        <v>44.18160113935405</v>
+        <v>40.32044405839495</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.003165712639969342</v>
+        <v>-0.03030768669313488</v>
       </c>
     </row>
     <row r="203">
@@ -3269,13 +3269,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>44.18768546690853</v>
+        <v>40.29240873558599</v>
       </c>
       <c r="C203" t="n">
-        <v>44.22981715520103</v>
+        <v>40.38107862762281</v>
       </c>
       <c r="D203" t="n">
-        <v>-0.0421316882924998</v>
+        <v>-0.08866989203681896</v>
       </c>
     </row>
     <row r="204">
@@ -3283,13 +3283,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>44.21909890488644</v>
+        <v>40.29457301403716</v>
       </c>
       <c r="C204" t="n">
-        <v>44.22447541129713</v>
+        <v>40.32821761403316</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.005376506410691206</v>
+        <v>-0.033644599996002</v>
       </c>
     </row>
     <row r="205">
@@ -3297,13 +3297,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>44.23232732527755</v>
+        <v>40.29509874490081</v>
       </c>
       <c r="C205" t="n">
-        <v>44.24997280088667</v>
+        <v>40.29858907674031</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.01764547560912888</v>
+        <v>-0.003490331839508087</v>
       </c>
     </row>
     <row r="206">
@@ -3311,13 +3311,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>44.23373670960761</v>
+        <v>40.30056042595675</v>
       </c>
       <c r="C206" t="n">
-        <v>44.24633482450743</v>
+        <v>40.32634439013554</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.01259811489982354</v>
+        <v>-0.02578396417879247</v>
       </c>
     </row>
     <row r="207">
@@ -3325,13 +3325,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>45.41302466406859</v>
+        <v>40.3111907096706</v>
       </c>
       <c r="C207" t="n">
-        <v>45.51314098179986</v>
+        <v>40.33382816634714</v>
       </c>
       <c r="D207" t="n">
-        <v>-0.1001163177312705</v>
+        <v>-0.02263745667654149</v>
       </c>
     </row>
     <row r="208">
@@ -3339,13 +3339,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>45.43690040557416</v>
+        <v>40.31673006482556</v>
       </c>
       <c r="C208" t="n">
-        <v>45.44770717855411</v>
+        <v>40.36247734974913</v>
       </c>
       <c r="D208" t="n">
-        <v>-0.01080677297994725</v>
+        <v>-0.04574728492356428</v>
       </c>
     </row>
     <row r="209">
@@ -3353,13 +3353,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>45.44040964166076</v>
+        <v>40.37005953824561</v>
       </c>
       <c r="C209" t="n">
-        <v>45.55065827383483</v>
+        <v>40.38064826480694</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.110248632174077</v>
+        <v>-0.01058872656133047</v>
       </c>
     </row>
     <row r="210">
@@ -3367,13 +3367,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>45.44531948502904</v>
+        <v>40.48231029175466</v>
       </c>
       <c r="C210" t="n">
-        <v>45.47586867572634</v>
+        <v>40.33670639629968</v>
       </c>
       <c r="D210" t="n">
-        <v>-0.03054919069730033</v>
+        <v>0.1456038954549825</v>
       </c>
     </row>
     <row r="211">
@@ -3381,13 +3381,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>45.45199010933119</v>
+        <v>40.49940116259118</v>
       </c>
       <c r="C211" t="n">
-        <v>45.46229052455637</v>
+        <v>40.29393857920319</v>
       </c>
       <c r="D211" t="n">
-        <v>-0.01030041522517422</v>
+        <v>0.2054625833879911</v>
       </c>
     </row>
     <row r="212">
@@ -3395,13 +3395,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>45.45208578232995</v>
+        <v>40.69449919336729</v>
       </c>
       <c r="C212" t="n">
-        <v>45.46512243141105</v>
+        <v>40.78611852125625</v>
       </c>
       <c r="D212" t="n">
-        <v>-0.01303664908109425</v>
+        <v>-0.09161932788895655</v>
       </c>
     </row>
     <row r="213">
@@ -3409,13 +3409,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>45.45539292339217</v>
+        <v>40.6990514143082</v>
       </c>
       <c r="C213" t="n">
-        <v>45.51904429297173</v>
+        <v>40.74129650335737</v>
       </c>
       <c r="D213" t="n">
-        <v>-0.06365136957955286</v>
+        <v>-0.04224508904916746</v>
       </c>
     </row>
     <row r="214">
@@ -3423,13 +3423,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>45.4605071945865</v>
+        <v>40.69972929226262</v>
       </c>
       <c r="C214" t="n">
-        <v>45.55403528194466</v>
+        <v>40.80190641436398</v>
       </c>
       <c r="D214" t="n">
-        <v>-0.09352808735816609</v>
+        <v>-0.1021771221013594</v>
       </c>
     </row>
     <row r="215">
@@ -3437,13 +3437,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>45.4609597476233</v>
+        <v>40.71166572387354</v>
       </c>
       <c r="C215" t="n">
-        <v>45.47147294201486</v>
+        <v>40.78116675557619</v>
       </c>
       <c r="D215" t="n">
-        <v>-0.01051319439156373</v>
+        <v>-0.0695010317026501</v>
       </c>
     </row>
     <row r="216">
@@ -3451,13 +3451,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>45.46696996350199</v>
+        <v>40.71219285901758</v>
       </c>
       <c r="C216" t="n">
-        <v>45.47452817316972</v>
+        <v>40.72568294868046</v>
       </c>
       <c r="D216" t="n">
-        <v>-0.007558209667735127</v>
+        <v>-0.01349008966287357</v>
       </c>
     </row>
     <row r="217">
@@ -3465,13 +3465,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>45.47448302102018</v>
+        <v>40.71670560855799</v>
       </c>
       <c r="C217" t="n">
-        <v>45.51185221910687</v>
+        <v>40.71682866280195</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.0373691980866937</v>
+        <v>-0.0001230542439571991</v>
       </c>
     </row>
     <row r="218">
@@ -3479,13 +3479,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>45.49131581949278</v>
+        <v>40.73088931110675</v>
       </c>
       <c r="C218" t="n">
-        <v>45.58637717605298</v>
+        <v>40.7529072664331</v>
       </c>
       <c r="D218" t="n">
-        <v>-0.0950613565602012</v>
+        <v>-0.02201795532634776</v>
       </c>
     </row>
     <row r="219">
@@ -3493,13 +3493,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>45.49874318887998</v>
+        <v>40.73163655497424</v>
       </c>
       <c r="C219" t="n">
-        <v>45.52924463180711</v>
+        <v>40.73315897428785</v>
       </c>
       <c r="D219" t="n">
-        <v>-0.03050144292713242</v>
+        <v>-0.001522419313609191</v>
       </c>
     </row>
     <row r="220">
@@ -3507,13 +3507,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>45.51127757067111</v>
+        <v>40.73302103671517</v>
       </c>
       <c r="C220" t="n">
-        <v>45.60140882488967</v>
+        <v>40.79060212414115</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.09013125421855506</v>
+        <v>-0.05758108742598012</v>
       </c>
     </row>
     <row r="221">
@@ -3521,13 +3521,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>45.51719213697809</v>
+        <v>40.75847444187139</v>
       </c>
       <c r="C221" t="n">
-        <v>45.51968288751277</v>
+        <v>40.79713899364834</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.002490750534683173</v>
+        <v>-0.03866455177694661</v>
       </c>
     </row>
     <row r="222">
@@ -3535,13 +3535,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>45.51847127117902</v>
+        <v>40.76419805247642</v>
       </c>
       <c r="C222" t="n">
-        <v>45.58360260732043</v>
+        <v>40.81171005093524</v>
       </c>
       <c r="D222" t="n">
-        <v>-0.06513133614140543</v>
+        <v>-0.04751199845881615</v>
       </c>
     </row>
     <row r="223">
@@ -3549,13 +3549,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>45.52063527478617</v>
+        <v>40.80146097813326</v>
       </c>
       <c r="C223" t="n">
-        <v>45.55994504367029</v>
+        <v>40.8126986620649</v>
       </c>
       <c r="D223" t="n">
-        <v>-0.03930976888411664</v>
+        <v>-0.01123768393163971</v>
       </c>
     </row>
     <row r="224">
@@ -3563,13 +3563,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>45.52825468580964</v>
+        <v>40.90868733960024</v>
       </c>
       <c r="C224" t="n">
-        <v>45.6035177665824</v>
+        <v>40.70002148102529</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.07526308077276411</v>
+        <v>0.2086658585749532</v>
       </c>
     </row>
     <row r="225">
@@ -3577,13 +3577,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>45.57435566453012</v>
+        <v>43.17193841818222</v>
       </c>
       <c r="C225" t="n">
-        <v>45.61291072160929</v>
+        <v>43.26957524799079</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.03855505707917217</v>
+        <v>-0.09763682980857169</v>
       </c>
     </row>
     <row r="226">
@@ -3591,13 +3591,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>45.57630952630856</v>
+        <v>43.17610013912926</v>
       </c>
       <c r="C226" t="n">
-        <v>45.58097878427554</v>
+        <v>43.29523510719346</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.004669257966980922</v>
+        <v>-0.119134968064202</v>
       </c>
     </row>
     <row r="227">
@@ -3605,13 +3605,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>45.89537368050677</v>
+        <v>43.21459326014322</v>
       </c>
       <c r="C227" t="n">
-        <v>46.01370946966957</v>
+        <v>43.30397246135734</v>
       </c>
       <c r="D227" t="n">
-        <v>-0.1183357891627992</v>
+        <v>-0.0893792012141148</v>
       </c>
     </row>
     <row r="228">
@@ -3619,13 +3619,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>45.93898090746548</v>
+        <v>43.23326653946309</v>
       </c>
       <c r="C228" t="n">
-        <v>46.04456089319824</v>
+        <v>43.27127612057178</v>
       </c>
       <c r="D228" t="n">
-        <v>-0.1055799857327528</v>
+        <v>-0.03800958110868891</v>
       </c>
     </row>
     <row r="229">
@@ -3633,13 +3633,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>45.9396319711683</v>
+        <v>43.28500019904359</v>
       </c>
       <c r="C229" t="n">
-        <v>45.95458496951776</v>
+        <v>43.29191527813811</v>
       </c>
       <c r="D229" t="n">
-        <v>-0.0149529983494574</v>
+        <v>-0.006915079094525822</v>
       </c>
     </row>
     <row r="230">
@@ -3647,13 +3647,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>45.95026651756788</v>
+        <v>43.94869990624408</v>
       </c>
       <c r="C230" t="n">
-        <v>45.96883737793014</v>
+        <v>44.05641723921008</v>
       </c>
       <c r="D230" t="n">
-        <v>-0.01857086036226008</v>
+        <v>-0.1077173329659971</v>
       </c>
     </row>
     <row r="231">
@@ -3661,13 +3661,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>45.97219030208699</v>
+        <v>43.94925535551054</v>
       </c>
       <c r="C231" t="n">
-        <v>46.04560274200595</v>
+        <v>44.03116483451418</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.07341243991895396</v>
+        <v>-0.08190947900363454</v>
       </c>
     </row>
     <row r="232">
@@ -3675,13 +3675,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>45.97711346776241</v>
+        <v>43.94934060959419</v>
       </c>
       <c r="C232" t="n">
-        <v>45.98125383937985</v>
+        <v>44.04502459652559</v>
       </c>
       <c r="D232" t="n">
-        <v>-0.004140371617445737</v>
+        <v>-0.09568398693139812</v>
       </c>
     </row>
     <row r="233">
@@ -3689,13 +3689,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>45.98435244630053</v>
+        <v>43.97355133381518</v>
       </c>
       <c r="C233" t="n">
-        <v>46.04590969092251</v>
+        <v>44.07223479568299</v>
       </c>
       <c r="D233" t="n">
-        <v>-0.06155724462198009</v>
+        <v>-0.09868346186781451</v>
       </c>
     </row>
     <row r="234">
@@ -3703,13 +3703,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>46.49504799477796</v>
+        <v>43.98043171055753</v>
       </c>
       <c r="C234" t="n">
-        <v>46.5107292781201</v>
+        <v>44.04841060258996</v>
       </c>
       <c r="D234" t="n">
-        <v>-0.01568128334214691</v>
+        <v>-0.06797889203243557</v>
       </c>
     </row>
     <row r="235">
@@ -3717,13 +3717,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>46.50583994271148</v>
+        <v>43.98704642531869</v>
       </c>
       <c r="C235" t="n">
-        <v>46.50883930608813</v>
+        <v>44.03076253261345</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.002999363376645192</v>
+        <v>-0.04371610729476316</v>
       </c>
     </row>
     <row r="236">
@@ -3731,13 +3731,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>46.51365900849785</v>
+        <v>44.01649455172824</v>
       </c>
       <c r="C236" t="n">
-        <v>46.52239714877761</v>
+        <v>44.04195532048416</v>
       </c>
       <c r="D236" t="n">
-        <v>-0.008738140279760387</v>
+        <v>-0.02546076875592007</v>
       </c>
     </row>
     <row r="237">
@@ -3745,13 +3745,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>46.544163503244</v>
+        <v>44.03557898172548</v>
       </c>
       <c r="C237" t="n">
-        <v>46.55704039341739</v>
+        <v>44.06076190349049</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.01287689017338778</v>
+        <v>-0.02518292176500836</v>
       </c>
     </row>
     <row r="238">
@@ -3759,13 +3759,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>46.54419075871699</v>
+        <v>44.03849093929209</v>
       </c>
       <c r="C238" t="n">
-        <v>46.5709239345795</v>
+        <v>44.07439822083389</v>
       </c>
       <c r="D238" t="n">
-        <v>-0.02673317586251045</v>
+        <v>-0.03590728154180312</v>
       </c>
     </row>
     <row r="239">
@@ -3773,13 +3773,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>46.6303011279883</v>
+        <v>44.04160296351487</v>
       </c>
       <c r="C239" t="n">
-        <v>46.63367583396727</v>
+        <v>44.05814671434713</v>
       </c>
       <c r="D239" t="n">
-        <v>-0.003374705978963277</v>
+        <v>-0.01654375083226256</v>
       </c>
     </row>
     <row r="240">
@@ -3787,13 +3787,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>46.63326171708399</v>
+        <v>44.21571917619088</v>
       </c>
       <c r="C240" t="n">
-        <v>46.64052611875351</v>
+        <v>43.99761409597106</v>
       </c>
       <c r="D240" t="n">
-        <v>-0.007264401669523579</v>
+        <v>0.2181050802198214</v>
       </c>
     </row>
     <row r="241">
@@ -3801,13 +3801,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>46.86618728404422</v>
+        <v>44.45507674979105</v>
       </c>
       <c r="C241" t="n">
-        <v>47.01408056704199</v>
+        <v>44.49469575458671</v>
       </c>
       <c r="D241" t="n">
-        <v>-0.1478932829977708</v>
+        <v>-0.03961900479566793</v>
       </c>
     </row>
     <row r="242">
@@ -3815,13 +3815,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>46.88821894401154</v>
+        <v>44.47544709325155</v>
       </c>
       <c r="C242" t="n">
-        <v>46.96365017004395</v>
+        <v>44.49555807855387</v>
       </c>
       <c r="D242" t="n">
-        <v>-0.07543122603240704</v>
+        <v>-0.02011098530231692</v>
       </c>
     </row>
     <row r="243">
@@ -3829,13 +3829,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>46.89609408602384</v>
+        <v>44.48749338502889</v>
       </c>
       <c r="C243" t="n">
-        <v>46.96755994986891</v>
+        <v>44.53860009992075</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.07146586384507714</v>
+        <v>-0.05110671489185847</v>
       </c>
     </row>
     <row r="244">
@@ -3843,13 +3843,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>46.89764197532536</v>
+        <v>44.51811360154521</v>
       </c>
       <c r="C244" t="n">
-        <v>46.91692816966042</v>
+        <v>44.53111804009962</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.0192861943350664</v>
+        <v>-0.01300443855441102</v>
       </c>
     </row>
     <row r="245">
@@ -3857,13 +3857,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>46.89786811206549</v>
+        <v>44.51963869334116</v>
       </c>
       <c r="C245" t="n">
-        <v>46.9202797591944</v>
+        <v>44.52584728868785</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.02241164712891219</v>
+        <v>-0.006208595346691936</v>
       </c>
     </row>
     <row r="246">
@@ -3871,13 +3871,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>46.93206429706645</v>
+        <v>44.54463517276075</v>
       </c>
       <c r="C246" t="n">
-        <v>46.96075700639278</v>
+        <v>44.57831015326267</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.02869270932633583</v>
+        <v>-0.03367498050192097</v>
       </c>
     </row>
     <row r="247">
@@ -3885,13 +3885,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>46.95162798848721</v>
+        <v>46.87289385814812</v>
       </c>
       <c r="C247" t="n">
-        <v>47.00810087344259</v>
+        <v>46.95334635414985</v>
       </c>
       <c r="D247" t="n">
-        <v>-0.05647288495538305</v>
+        <v>-0.08045249600173321</v>
       </c>
     </row>
     <row r="248">
@@ -3899,13 +3899,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>46.95296149722365</v>
+        <v>46.89414285602796</v>
       </c>
       <c r="C248" t="n">
-        <v>46.98898117729414</v>
+        <v>46.8972815567878</v>
       </c>
       <c r="D248" t="n">
-        <v>-0.03601968007048129</v>
+        <v>-0.003138700759841129</v>
       </c>
     </row>
     <row r="249">
@@ -3913,13 +3913,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>46.95692712700572</v>
+        <v>46.90092069215894</v>
       </c>
       <c r="C249" t="n">
-        <v>46.97139939267663</v>
+        <v>46.94864349820715</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.01447226567091064</v>
+        <v>-0.04772280604820622</v>
       </c>
     </row>
     <row r="250">
@@ -3927,13 +3927,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>46.99088870861004</v>
+        <v>46.90714148583771</v>
       </c>
       <c r="C250" t="n">
-        <v>46.99885068610821</v>
+        <v>46.96882702380576</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.007961977498169404</v>
+        <v>-0.06168553796804588</v>
       </c>
     </row>
     <row r="251">
@@ -3941,13 +3941,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>51.88006591638587</v>
+        <v>46.9090320987316</v>
       </c>
       <c r="C251" t="n">
-        <v>51.92205065691599</v>
+        <v>47.0209500257651</v>
       </c>
       <c r="D251" t="n">
-        <v>-0.04198474053011836</v>
+        <v>-0.1119179270335025</v>
       </c>
     </row>
     <row r="252">
@@ -3955,13 +3955,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>51.90150860316312</v>
+        <v>46.92198578002212</v>
       </c>
       <c r="C252" t="n">
-        <v>51.97738313479612</v>
+        <v>46.93575398561281</v>
       </c>
       <c r="D252" t="n">
-        <v>-0.07587453163299784</v>
+        <v>-0.01376820559069358</v>
       </c>
     </row>
     <row r="253">
@@ -3969,13 +3969,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>51.90432219508264</v>
+        <v>46.93300022631946</v>
       </c>
       <c r="C253" t="n">
-        <v>51.97946128668095</v>
+        <v>47.00725981934732</v>
       </c>
       <c r="D253" t="n">
-        <v>-0.07513909159831655</v>
+        <v>-0.07425959302786111</v>
       </c>
     </row>
     <row r="254">
@@ -3983,13 +3983,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>51.91921353934814</v>
+        <v>46.94583742302603</v>
       </c>
       <c r="C254" t="n">
-        <v>51.95271670942012</v>
+        <v>46.94892893024142</v>
       </c>
       <c r="D254" t="n">
-        <v>-0.0335031700719739</v>
+        <v>-0.003091507215387423</v>
       </c>
     </row>
     <row r="255">
@@ -3997,13 +3997,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>51.91934781411185</v>
+        <v>46.95778303015801</v>
       </c>
       <c r="C255" t="n">
-        <v>52.0117732029837</v>
+        <v>47.01557232723233</v>
       </c>
       <c r="D255" t="n">
-        <v>-0.09242538887185248</v>
+        <v>-0.05778929707432212</v>
       </c>
     </row>
     <row r="256">
@@ -4011,13 +4011,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>51.92217684723659</v>
+        <v>46.96226700643212</v>
       </c>
       <c r="C256" t="n">
-        <v>52.01718303799505</v>
+        <v>46.99422028697521</v>
       </c>
       <c r="D256" t="n">
-        <v>-0.09500619075846117</v>
+        <v>-0.03195328054308533</v>
       </c>
     </row>
     <row r="257">
@@ -4025,13 +4025,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>51.98433187354132</v>
+        <v>47.00459036409624</v>
       </c>
       <c r="C257" t="n">
-        <v>52.02441785341078</v>
+        <v>47.0124035604991</v>
       </c>
       <c r="D257" t="n">
-        <v>-0.04008597986945972</v>
+        <v>-0.007813196402857159</v>
       </c>
     </row>
     <row r="258">
@@ -4039,13 +4039,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>52.00122310036301</v>
+        <v>47.00816129557853</v>
       </c>
       <c r="C258" t="n">
-        <v>52.00224508010208</v>
+        <v>47.02259766018656</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.00102197973907181</v>
+        <v>-0.01443636460802367</v>
       </c>
     </row>
     <row r="259">
@@ -4053,13 +4053,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>53.08914777849257</v>
+        <v>47.53864190015764</v>
       </c>
       <c r="C259" t="n">
-        <v>53.12119354702224</v>
+        <v>47.6801103073761</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.03204576852967023</v>
+        <v>-0.1414684072184542</v>
       </c>
     </row>
     <row r="260">
@@ -4067,13 +4067,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>53.11372385782295</v>
+        <v>47.55291722307115</v>
       </c>
       <c r="C260" t="n">
-        <v>53.24699458485252</v>
+        <v>47.56316441289324</v>
       </c>
       <c r="D260" t="n">
-        <v>-0.1332707270295614</v>
+        <v>-0.01024718982208839</v>
       </c>
     </row>
     <row r="261">
@@ -4081,13 +4081,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>53.12139186354752</v>
+        <v>47.55470329123317</v>
       </c>
       <c r="C261" t="n">
-        <v>53.2237925092582</v>
+        <v>47.66769949529952</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.1024006457106807</v>
+        <v>-0.1129962040663486</v>
       </c>
     </row>
     <row r="262">
@@ -4095,13 +4095,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>53.1356678146956</v>
+        <v>47.56238915248841</v>
       </c>
       <c r="C262" t="n">
-        <v>53.22467499152019</v>
+        <v>47.67277701364912</v>
       </c>
       <c r="D262" t="n">
-        <v>-0.08900717682458748</v>
+        <v>-0.1103878611607101</v>
       </c>
     </row>
     <row r="263">
@@ -4109,13 +4109,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>53.16138127519492</v>
+        <v>47.59625308438456</v>
       </c>
       <c r="C263" t="n">
-        <v>53.19734547370313</v>
+        <v>47.67774650729422</v>
       </c>
       <c r="D263" t="n">
-        <v>-0.03596419850821064</v>
+        <v>-0.08149342290965222</v>
       </c>
     </row>
     <row r="264">
@@ -4123,13 +4123,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>53.18279306677824</v>
+        <v>47.6037821658625</v>
       </c>
       <c r="C264" t="n">
-        <v>53.21889889308655</v>
+        <v>47.63635637902193</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.03610582630831516</v>
+        <v>-0.03257421315942111</v>
       </c>
     </row>
     <row r="265">
@@ -4137,13 +4137,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>53.19990302477134</v>
+        <v>47.61014879491852</v>
       </c>
       <c r="C265" t="n">
-        <v>53.2142912746648</v>
+        <v>47.66880600392224</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.01438824989345733</v>
+        <v>-0.0586572090037194</v>
       </c>
     </row>
     <row r="266">
@@ -4151,13 +4151,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>53.20061895973932</v>
+        <v>47.61415868050476</v>
       </c>
       <c r="C266" t="n">
-        <v>53.25044664437433</v>
+        <v>47.68937836339087</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.0498276846350123</v>
+        <v>-0.07521968288610736</v>
       </c>
     </row>
     <row r="267">
@@ -4165,13 +4165,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>54.42615800197601</v>
+        <v>47.65471697201188</v>
       </c>
       <c r="C267" t="n">
-        <v>54.48392855788774</v>
+        <v>47.68552678197821</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.05777055591173053</v>
+        <v>-0.03080980996633542</v>
       </c>
     </row>
     <row r="268">
@@ -4179,13 +4179,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>54.43076996098196</v>
+        <v>47.93725357580219</v>
       </c>
       <c r="C268" t="n">
-        <v>54.54351045066939</v>
+        <v>47.96915448092961</v>
       </c>
       <c r="D268" t="n">
-        <v>-0.1127404896874324</v>
+        <v>-0.03190090512742216</v>
       </c>
     </row>
     <row r="269">
@@ -4193,13 +4193,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>54.5139362493995</v>
+        <v>47.97038893456516</v>
       </c>
       <c r="C269" t="n">
-        <v>54.52956806412785</v>
+        <v>48.10775057523156</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.0156318147283514</v>
+        <v>-0.1373616406664055</v>
       </c>
     </row>
     <row r="270">
@@ -4207,13 +4207,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>54.52490061583707</v>
+        <v>47.97730811069649</v>
       </c>
       <c r="C270" t="n">
-        <v>54.54392698571059</v>
+        <v>48.04639003064208</v>
       </c>
       <c r="D270" t="n">
-        <v>-0.01902636987352224</v>
+        <v>-0.06908191994558877</v>
       </c>
     </row>
     <row r="271">
@@ -4221,13 +4221,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>54.52752007011896</v>
+        <v>47.99606648034335</v>
       </c>
       <c r="C271" t="n">
-        <v>54.55525321261589</v>
+        <v>48.07919466342308</v>
       </c>
       <c r="D271" t="n">
-        <v>-0.0277331424969276</v>
+        <v>-0.08312818307972947</v>
       </c>
     </row>
     <row r="272">
@@ -4235,13 +4235,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>54.72084402441652</v>
+        <v>47.9980230231525</v>
       </c>
       <c r="C272" t="n">
-        <v>54.87286887495544</v>
+        <v>48.07475917023145</v>
       </c>
       <c r="D272" t="n">
-        <v>-0.1520248505389219</v>
+        <v>-0.07673614707894671</v>
       </c>
     </row>
     <row r="273">
@@ -4249,13 +4249,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>54.76186363591966</v>
+        <v>48.01320883388232</v>
       </c>
       <c r="C273" t="n">
-        <v>54.81279128490266</v>
+        <v>48.09641304017992</v>
       </c>
       <c r="D273" t="n">
-        <v>-0.05092764898299862</v>
+        <v>-0.0832042062976015</v>
       </c>
     </row>
     <row r="274">
@@ -4263,13 +4263,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>54.79202273389427</v>
+        <v>48.015448346978</v>
       </c>
       <c r="C274" t="n">
-        <v>54.81221415953853</v>
+        <v>48.08901574775615</v>
       </c>
       <c r="D274" t="n">
-        <v>-0.02019142564426346</v>
+        <v>-0.0735674007781526</v>
       </c>
     </row>
     <row r="275">
@@ -4277,13 +4277,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>54.81153790918764</v>
+        <v>48.02882170226145</v>
       </c>
       <c r="C275" t="n">
-        <v>54.83752092494898</v>
+        <v>48.09446699908658</v>
       </c>
       <c r="D275" t="n">
-        <v>-0.02598301576134077</v>
+        <v>-0.06564529682512443</v>
       </c>
     </row>
     <row r="276">
@@ -4291,13 +4291,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>54.87145384547346</v>
+        <v>48.03438848289992</v>
       </c>
       <c r="C276" t="n">
-        <v>54.87330612009259</v>
+        <v>48.03876472464705</v>
       </c>
       <c r="D276" t="n">
-        <v>-0.001852274619125183</v>
+        <v>-0.00437624174713136</v>
       </c>
     </row>
     <row r="277">
@@ -4305,13 +4305,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>56.36080863843073</v>
+        <v>48.05622684930842</v>
       </c>
       <c r="C277" t="n">
-        <v>56.46686802045269</v>
+        <v>48.06046685980241</v>
       </c>
       <c r="D277" t="n">
-        <v>-0.1060593820219609</v>
+        <v>-0.004240010493994362</v>
       </c>
     </row>
     <row r="278">
@@ -4319,13 +4319,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>56.36126081698621</v>
+        <v>48.05633202402309</v>
       </c>
       <c r="C278" t="n">
-        <v>56.48077763669055</v>
+        <v>48.09248104360813</v>
       </c>
       <c r="D278" t="n">
-        <v>-0.1195168197043444</v>
+        <v>-0.03614901958504646</v>
       </c>
     </row>
     <row r="279">
@@ -4333,13 +4333,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>56.38302118358884</v>
+        <v>48.06227170749928</v>
       </c>
       <c r="C279" t="n">
-        <v>56.4491352588259</v>
+        <v>48.10202371439034</v>
       </c>
       <c r="D279" t="n">
-        <v>-0.06611407523705992</v>
+        <v>-0.03975200689106373</v>
       </c>
     </row>
     <row r="280">
@@ -4347,13 +4347,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>56.40649786514377</v>
+        <v>48.06906944208567</v>
       </c>
       <c r="C280" t="n">
-        <v>56.45830819067487</v>
+        <v>48.07240364909421</v>
       </c>
       <c r="D280" t="n">
-        <v>-0.05181032553110043</v>
+        <v>-0.003334207008542478</v>
       </c>
     </row>
     <row r="281">
@@ -4361,13 +4361,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>56.41192049217904</v>
+        <v>48.07506795306357</v>
       </c>
       <c r="C281" t="n">
-        <v>56.42384533388037</v>
+        <v>48.07551227505353</v>
       </c>
       <c r="D281" t="n">
-        <v>-0.01192484170132246</v>
+        <v>-0.0004443219899670225</v>
       </c>
     </row>
     <row r="282">
@@ -4375,13 +4375,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>56.4221380106215</v>
+        <v>48.67129438174873</v>
       </c>
       <c r="C282" t="n">
-        <v>56.47927590461212</v>
+        <v>48.74277534199354</v>
       </c>
       <c r="D282" t="n">
-        <v>-0.05713789399062819</v>
+        <v>-0.07148096024480566</v>
       </c>
     </row>
     <row r="283">
@@ -4389,13 +4389,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>56.43817190873803</v>
+        <v>48.70827551761787</v>
       </c>
       <c r="C283" t="n">
-        <v>56.50883083662634</v>
+        <v>48.79071420316711</v>
       </c>
       <c r="D283" t="n">
-        <v>-0.07065892788830297</v>
+        <v>-0.08243868554924205</v>
       </c>
     </row>
     <row r="284">
@@ -4403,13 +4403,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>56.45519472080824</v>
+        <v>48.71915638818585</v>
       </c>
       <c r="C284" t="n">
-        <v>56.50907220488473</v>
+        <v>48.76715071847961</v>
       </c>
       <c r="D284" t="n">
-        <v>-0.05387748407648729</v>
+        <v>-0.04799433029375422</v>
       </c>
     </row>
     <row r="285">
@@ -4417,13 +4417,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>56.45804129485867</v>
+        <v>48.72277716696778</v>
       </c>
       <c r="C285" t="n">
-        <v>56.46795552470504</v>
+        <v>48.75960319407363</v>
       </c>
       <c r="D285" t="n">
-        <v>-0.009914229846373246</v>
+        <v>-0.03682602710584604</v>
       </c>
     </row>
     <row r="286">
@@ -4431,13 +4431,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>56.4781088341927</v>
+        <v>48.72657407274826</v>
       </c>
       <c r="C286" t="n">
-        <v>56.52194244157764</v>
+        <v>48.76588009693503</v>
       </c>
       <c r="D286" t="n">
-        <v>-0.04383360738494702</v>
+        <v>-0.03930602418676443</v>
       </c>
     </row>
     <row r="287">
@@ -4445,13 +4445,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>56.48338084700148</v>
+        <v>48.74235931437711</v>
       </c>
       <c r="C287" t="n">
-        <v>56.50616957035952</v>
+        <v>48.81416733728801</v>
       </c>
       <c r="D287" t="n">
-        <v>-0.02278872335804039</v>
+        <v>-0.0718080229109006</v>
       </c>
     </row>
     <row r="288">
@@ -4459,13 +4459,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>56.48502116160899</v>
+        <v>48.77961470135062</v>
       </c>
       <c r="C288" t="n">
-        <v>56.48658231036021</v>
+        <v>48.78001119161782</v>
       </c>
       <c r="D288" t="n">
-        <v>-0.001561148751214603</v>
+        <v>-0.0003964902672066728</v>
       </c>
     </row>
     <row r="289">
@@ -4473,13 +4473,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>56.48920788750601</v>
+        <v>48.79387666558931</v>
       </c>
       <c r="C289" t="n">
-        <v>56.49434454921683</v>
+        <v>48.81566719899212</v>
       </c>
       <c r="D289" t="n">
-        <v>-0.0051366617108215</v>
+        <v>-0.02179053340281456</v>
       </c>
     </row>
     <row r="290">
@@ -4487,13 +4487,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>56.52887087033262</v>
+        <v>48.81096934747442</v>
       </c>
       <c r="C290" t="n">
-        <v>56.6238711853336</v>
+        <v>48.81140472779136</v>
       </c>
       <c r="D290" t="n">
-        <v>-0.09500031500098061</v>
+        <v>-0.0004353803169436787</v>
       </c>
     </row>
     <row r="291">
@@ -4501,13 +4501,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>56.54270703666662</v>
+        <v>51.38584688565206</v>
       </c>
       <c r="C291" t="n">
-        <v>56.60299156067317</v>
+        <v>51.46109642319787</v>
       </c>
       <c r="D291" t="n">
-        <v>-0.06028452400654771</v>
+        <v>-0.07524953754581531</v>
       </c>
     </row>
     <row r="292">
@@ -4515,13 +4515,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>56.55099329620312</v>
+        <v>51.40622693893314</v>
       </c>
       <c r="C292" t="n">
-        <v>56.62475661287611</v>
+        <v>51.5113720164803</v>
       </c>
       <c r="D292" t="n">
-        <v>-0.07376331667299496</v>
+        <v>-0.1051450775471636</v>
       </c>
     </row>
     <row r="293">
@@ -4529,13 +4529,13 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>56.56606115807421</v>
+        <v>51.42930203320188</v>
       </c>
       <c r="C293" t="n">
-        <v>56.62254953440495</v>
+        <v>51.44830260864696</v>
       </c>
       <c r="D293" t="n">
-        <v>-0.05648837633073356</v>
+        <v>-0.01900057544508371</v>
       </c>
     </row>
     <row r="294">
@@ -4543,13 +4543,13 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>56.56993733435095</v>
+        <v>51.44533265765603</v>
       </c>
       <c r="C294" t="n">
-        <v>56.60488911750104</v>
+        <v>51.45760910048465</v>
       </c>
       <c r="D294" t="n">
-        <v>-0.03495178315008474</v>
+        <v>-0.01227644282861462</v>
       </c>
     </row>
     <row r="295">
@@ -4557,13 +4557,13 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>56.57297544559056</v>
+        <v>51.47398249815856</v>
       </c>
       <c r="C295" t="n">
-        <v>56.60656788913652</v>
+        <v>51.50907756937155</v>
       </c>
       <c r="D295" t="n">
-        <v>-0.03359244354595603</v>
+        <v>-0.03509507121299293</v>
       </c>
     </row>
     <row r="296">
@@ -4571,13 +4571,13 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>56.57402590086984</v>
+        <v>51.48705044870258</v>
       </c>
       <c r="C296" t="n">
-        <v>56.59737127621624</v>
+        <v>51.50721886846525</v>
       </c>
       <c r="D296" t="n">
-        <v>-0.02334537534640191</v>
+        <v>-0.02016841976266903</v>
       </c>
     </row>
     <row r="297">
@@ -4585,13 +4585,13 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>56.58273683087571</v>
+        <v>52.13369330975728</v>
       </c>
       <c r="C297" t="n">
-        <v>56.62809192407769</v>
+        <v>52.17485694758346</v>
       </c>
       <c r="D297" t="n">
-        <v>-0.04535509320198372</v>
+        <v>-0.04116363782618038</v>
       </c>
     </row>
     <row r="298">
@@ -4599,13 +4599,13 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>56.58721873338396</v>
+        <v>52.1364900015903</v>
       </c>
       <c r="C298" t="n">
-        <v>56.61341471211234</v>
+        <v>52.14944550575617</v>
       </c>
       <c r="D298" t="n">
-        <v>-0.02619597872838142</v>
+        <v>-0.01295550416586622</v>
       </c>
     </row>
     <row r="299">
@@ -4613,13 +4613,13 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>56.58900903001879</v>
+        <v>52.14562926326512</v>
       </c>
       <c r="C299" t="n">
-        <v>56.65002531630451</v>
+        <v>52.17353674666742</v>
       </c>
       <c r="D299" t="n">
-        <v>-0.06101628628572087</v>
+        <v>-0.02790748340230209</v>
       </c>
     </row>
     <row r="300">
@@ -4627,13 +4627,13 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>56.59028801108482</v>
+        <v>52.16956319258966</v>
       </c>
       <c r="C300" t="n">
-        <v>56.63890539753796</v>
+        <v>52.20829342629585</v>
       </c>
       <c r="D300" t="n">
-        <v>-0.04861738645313807</v>
+        <v>-0.03873023370618967</v>
       </c>
     </row>
     <row r="301">
@@ -4641,13 +4641,13 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>56.63396476762455</v>
+        <v>52.19765464963719</v>
       </c>
       <c r="C301" t="n">
-        <v>56.63854214041465</v>
+        <v>52.24295504225346</v>
       </c>
       <c r="D301" t="n">
-        <v>-0.004577372790102174</v>
+        <v>-0.04530039261626939</v>
       </c>
     </row>
     <row r="302">
@@ -4655,13 +4655,13 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>56.69879679935391</v>
+        <v>52.23894746608855</v>
       </c>
       <c r="C302" t="n">
-        <v>56.49592929379944</v>
+        <v>52.26100554026648</v>
       </c>
       <c r="D302" t="n">
-        <v>0.2028675055544724</v>
+        <v>-0.02205807417793437</v>
       </c>
     </row>
     <row r="303">
@@ -4669,13 +4669,13 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>57.00112132271109</v>
+        <v>52.24838507152074</v>
       </c>
       <c r="C303" t="n">
-        <v>57.07445232344136</v>
+        <v>52.25400282987676</v>
       </c>
       <c r="D303" t="n">
-        <v>-0.07333100073026344</v>
+        <v>-0.005617758356017077</v>
       </c>
     </row>
     <row r="304">
@@ -4683,13 +4683,13 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>57.04306341473348</v>
+        <v>52.25016662333523</v>
       </c>
       <c r="C304" t="n">
-        <v>57.10730603085159</v>
+        <v>52.26467061012011</v>
       </c>
       <c r="D304" t="n">
-        <v>-0.06424261611810778</v>
+        <v>-0.01450398678488085</v>
       </c>
     </row>
     <row r="305">
@@ -4697,13 +4697,13 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>57.04582078889689</v>
+        <v>54.28712538727613</v>
       </c>
       <c r="C305" t="n">
-        <v>57.14417724638542</v>
+        <v>54.33284586109136</v>
       </c>
       <c r="D305" t="n">
-        <v>-0.09835645748853494</v>
+        <v>-0.04572047381523703</v>
       </c>
     </row>
     <row r="306">
@@ -4711,13 +4711,13 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>57.04713292371516</v>
+        <v>54.30617145342263</v>
       </c>
       <c r="C306" t="n">
-        <v>57.13067708656637</v>
+        <v>54.35419569937282</v>
       </c>
       <c r="D306" t="n">
-        <v>-0.08354416285121147</v>
+        <v>-0.04802424595019517</v>
       </c>
     </row>
     <row r="307">
@@ -4725,13 +4725,13 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>57.05752479477875</v>
+        <v>54.31955595601208</v>
       </c>
       <c r="C307" t="n">
-        <v>57.07451808702572</v>
+        <v>54.32545457770274</v>
       </c>
       <c r="D307" t="n">
-        <v>-0.01699329224696555</v>
+        <v>-0.005898621690654693</v>
       </c>
     </row>
     <row r="308">
@@ -4739,13 +4739,13 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>57.05792638215976</v>
+        <v>54.32615527624632</v>
       </c>
       <c r="C308" t="n">
-        <v>57.11530428602016</v>
+        <v>54.42307072313835</v>
       </c>
       <c r="D308" t="n">
-        <v>-0.05737790386039876</v>
+        <v>-0.09691544689203369</v>
       </c>
     </row>
     <row r="309">
@@ -4753,13 +4753,13 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>57.06015450967237</v>
+        <v>54.33017747757903</v>
       </c>
       <c r="C309" t="n">
-        <v>57.14143856600629</v>
+        <v>54.37469143890009</v>
       </c>
       <c r="D309" t="n">
-        <v>-0.08128405633392788</v>
+        <v>-0.04451396132105145</v>
       </c>
     </row>
     <row r="310">
@@ -4767,13 +4767,13 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>57.07249460040623</v>
+        <v>54.33059001443053</v>
       </c>
       <c r="C310" t="n">
-        <v>57.11601043630649</v>
+        <v>54.42623678676764</v>
       </c>
       <c r="D310" t="n">
-        <v>-0.04351583590025854</v>
+        <v>-0.09564677233710484</v>
       </c>
     </row>
     <row r="311">
@@ -4781,13 +4781,13 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>57.07654154513832</v>
+        <v>54.33709891283433</v>
       </c>
       <c r="C311" t="n">
-        <v>57.10456226134615</v>
+        <v>54.34705447858597</v>
       </c>
       <c r="D311" t="n">
-        <v>-0.02802071620783408</v>
+        <v>-0.009955565751646134</v>
       </c>
     </row>
     <row r="312">
@@ -4795,13 +4795,13 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>57.08922691463584</v>
+        <v>54.34167062428395</v>
       </c>
       <c r="C312" t="n">
-        <v>57.10787293482566</v>
+        <v>54.39173623982344</v>
       </c>
       <c r="D312" t="n">
-        <v>-0.01864602018981998</v>
+        <v>-0.05006561553949496</v>
       </c>
     </row>
     <row r="313">
@@ -4809,13 +4809,13 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>57.10151885902473</v>
+        <v>54.3562698277319</v>
       </c>
       <c r="C313" t="n">
-        <v>57.10303150131728</v>
+        <v>54.38505788522068</v>
       </c>
       <c r="D313" t="n">
-        <v>-0.001512642292546218</v>
+        <v>-0.02878805748878221</v>
       </c>
     </row>
     <row r="314">
@@ -4823,13 +4823,13 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>57.10244974564679</v>
+        <v>54.36217131586502</v>
       </c>
       <c r="C314" t="n">
-        <v>57.16575604239404</v>
+        <v>54.46020543419226</v>
       </c>
       <c r="D314" t="n">
-        <v>-0.06330629674725685</v>
+        <v>-0.09803411832724152</v>
       </c>
     </row>
     <row r="315">
@@ -4837,13 +4837,13 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>57.11761022079119</v>
+        <v>54.36637595716606</v>
       </c>
       <c r="C315" t="n">
-        <v>57.16643710906853</v>
+        <v>54.46028201118491</v>
       </c>
       <c r="D315" t="n">
-        <v>-0.04882688827733972</v>
+        <v>-0.0939060540188521</v>
       </c>
     </row>
     <row r="316">
@@ -4851,13 +4851,13 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>57.26106937036899</v>
+        <v>54.38413305512996</v>
       </c>
       <c r="C316" t="n">
-        <v>57.14482168701803</v>
+        <v>54.43704069795722</v>
       </c>
       <c r="D316" t="n">
-        <v>0.1162476833509629</v>
+        <v>-0.05290764282725036</v>
       </c>
     </row>
     <row r="317">
@@ -4865,13 +4865,13 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>57.34987811247164</v>
+        <v>54.39095342272462</v>
       </c>
       <c r="C317" t="n">
-        <v>57.14120185644031</v>
+        <v>54.40875548206822</v>
       </c>
       <c r="D317" t="n">
-        <v>0.2086762560313247</v>
+        <v>-0.01780205934359458</v>
       </c>
     </row>
     <row r="318">
@@ -4879,13 +4879,13 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>60.09428189400778</v>
+        <v>54.41787241702808</v>
       </c>
       <c r="C318" t="n">
-        <v>60.18392736461153</v>
+        <v>54.43680353231406</v>
       </c>
       <c r="D318" t="n">
-        <v>-0.08964547060375594</v>
+        <v>-0.01893111528598013</v>
       </c>
     </row>
     <row r="319">
@@ -4893,13 +4893,13 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>60.11568118549851</v>
+        <v>54.97811121718447</v>
       </c>
       <c r="C319" t="n">
-        <v>60.12318967879276</v>
+        <v>55.06628970225171</v>
       </c>
       <c r="D319" t="n">
-        <v>-0.007508493294245966</v>
+        <v>-0.08817848506723891</v>
       </c>
     </row>
     <row r="320">
@@ -4907,13 +4907,13 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>60.12239435642355</v>
+        <v>55.02307172815632</v>
       </c>
       <c r="C320" t="n">
-        <v>60.1947960648224</v>
+        <v>55.08726120864628</v>
       </c>
       <c r="D320" t="n">
-        <v>-0.07240170839884996</v>
+        <v>-0.06418948048995787</v>
       </c>
     </row>
     <row r="321">
@@ -4921,13 +4921,13 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>60.14136872445953</v>
+        <v>55.05536286757207</v>
       </c>
       <c r="C321" t="n">
-        <v>60.14506770444318</v>
+        <v>55.07405034219909</v>
       </c>
       <c r="D321" t="n">
-        <v>-0.003698979983646211</v>
+        <v>-0.01868747462702203</v>
       </c>
     </row>
     <row r="322">
@@ -4935,13 +4935,13 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>60.14284395412815</v>
+        <v>55.05769580881616</v>
       </c>
       <c r="C322" t="n">
-        <v>60.17943659730024</v>
+        <v>55.07714859275309</v>
       </c>
       <c r="D322" t="n">
-        <v>-0.0365926431720851</v>
+        <v>-0.01945278393693428</v>
       </c>
     </row>
     <row r="323">
@@ -4949,13 +4949,13 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>60.14845821539746</v>
+        <v>55.06423287964453</v>
       </c>
       <c r="C323" t="n">
-        <v>60.16095334589306</v>
+        <v>55.07227523816039</v>
       </c>
       <c r="D323" t="n">
-        <v>-0.01249513049559425</v>
+        <v>-0.008042358515858439</v>
       </c>
     </row>
     <row r="324">
@@ -4963,13 +4963,13 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>61.69198239839412</v>
+        <v>55.08601010909828</v>
       </c>
       <c r="C324" t="n">
-        <v>61.81515950105319</v>
+        <v>55.09637868002034</v>
       </c>
       <c r="D324" t="n">
-        <v>-0.1231771026590707</v>
+        <v>-0.01036857092205423</v>
       </c>
     </row>
     <row r="325">
@@ -4977,13 +4977,13 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>61.71104695755569</v>
+        <v>55.58079043798151</v>
       </c>
       <c r="C325" t="n">
-        <v>61.7316385307795</v>
+        <v>55.64565825918061</v>
       </c>
       <c r="D325" t="n">
-        <v>-0.02059157322381111</v>
+        <v>-0.06486782119910117</v>
       </c>
     </row>
     <row r="326">
@@ -4991,13 +4991,13 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>61.71276584998301</v>
+        <v>55.58513690269868</v>
       </c>
       <c r="C326" t="n">
-        <v>61.8174475726131</v>
+        <v>55.69500790375007</v>
       </c>
       <c r="D326" t="n">
-        <v>-0.1046817226300831</v>
+        <v>-0.1098710010513884</v>
       </c>
     </row>
     <row r="327">
@@ -5005,13 +5005,13 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>61.72435477111463</v>
+        <v>55.62453832014246</v>
       </c>
       <c r="C327" t="n">
-        <v>61.75693042494306</v>
+        <v>55.71009756164252</v>
       </c>
       <c r="D327" t="n">
-        <v>-0.03257565382842387</v>
+        <v>-0.08555924150005723</v>
       </c>
     </row>
     <row r="328">
@@ -5019,13 +5019,13 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>61.72954327751259</v>
+        <v>55.62824836231875</v>
       </c>
       <c r="C328" t="n">
-        <v>61.80301866130134</v>
+        <v>55.64703915432349</v>
       </c>
       <c r="D328" t="n">
-        <v>-0.07347538378874674</v>
+        <v>-0.01879079200474365</v>
       </c>
     </row>
     <row r="329">
@@ -5033,13 +5033,13 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>61.73266981302397</v>
+        <v>55.62875877541793</v>
       </c>
       <c r="C329" t="n">
-        <v>61.77601925889821</v>
+        <v>55.69307842307025</v>
       </c>
       <c r="D329" t="n">
-        <v>-0.04334944587424161</v>
+        <v>-0.06431964765232578</v>
       </c>
     </row>
     <row r="330">
@@ -5047,13 +5047,13 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>61.7425501719718</v>
+        <v>55.62965133043709</v>
       </c>
       <c r="C330" t="n">
-        <v>61.79521035375105</v>
+        <v>55.66799569987833</v>
       </c>
       <c r="D330" t="n">
-        <v>-0.05266018177925247</v>
+        <v>-0.03834436944123354</v>
       </c>
     </row>
     <row r="331">
@@ -5061,13 +5061,13 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>61.75375427068001</v>
+        <v>55.69204492397582</v>
       </c>
       <c r="C331" t="n">
-        <v>61.82253682447995</v>
+        <v>55.69836809179102</v>
       </c>
       <c r="D331" t="n">
-        <v>-0.06878255379994869</v>
+        <v>-0.006323167815196484</v>
       </c>
     </row>
     <row r="332">
@@ -5075,13 +5075,13 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>61.75676424657611</v>
+        <v>56.74233338507223</v>
       </c>
       <c r="C332" t="n">
-        <v>61.77673686328257</v>
+        <v>56.79222997516855</v>
       </c>
       <c r="D332" t="n">
-        <v>-0.01997261670646111</v>
+        <v>-0.04989659009631708</v>
       </c>
     </row>
     <row r="333">
@@ -5089,13 +5089,13 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>61.76769304898944</v>
+        <v>56.7560238609239</v>
       </c>
       <c r="C333" t="n">
-        <v>61.83109899771836</v>
+        <v>56.83574055200691</v>
       </c>
       <c r="D333" t="n">
-        <v>-0.06340594872892069</v>
+        <v>-0.07971669108301427</v>
       </c>
     </row>
     <row r="334">
@@ -5103,13 +5103,13 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>61.77045133246399</v>
+        <v>56.80900558992015</v>
       </c>
       <c r="C334" t="n">
-        <v>61.77986539454373</v>
+        <v>56.90263157823459</v>
       </c>
       <c r="D334" t="n">
-        <v>-0.00941406207973472</v>
+        <v>-0.09362598831443592</v>
       </c>
     </row>
     <row r="335">
@@ -5117,13 +5117,13 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>61.79029205370319</v>
+        <v>56.81080289155776</v>
       </c>
       <c r="C335" t="n">
-        <v>61.79428531280047</v>
+        <v>56.814704431223</v>
       </c>
       <c r="D335" t="n">
-        <v>-0.003993259097278212</v>
+        <v>-0.003901539665235987</v>
       </c>
     </row>
     <row r="336">
@@ -5131,13 +5131,13 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>61.80160579176576</v>
+        <v>56.81736532964721</v>
       </c>
       <c r="C336" t="n">
-        <v>61.82908587803843</v>
+        <v>56.83335641948702</v>
       </c>
       <c r="D336" t="n">
-        <v>-0.02748008627267495</v>
+        <v>-0.01599108983981523</v>
       </c>
     </row>
     <row r="337">
@@ -5145,13 +5145,13 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>61.82310770849933</v>
+        <v>56.8246565735423</v>
       </c>
       <c r="C337" t="n">
-        <v>61.82196027132606</v>
+        <v>56.85008736070152</v>
       </c>
       <c r="D337" t="n">
-        <v>0.001147437173266042</v>
+        <v>-0.0254307871592161</v>
       </c>
     </row>
     <row r="338">
@@ -5159,13 +5159,13 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>61.83322632023738</v>
+        <v>56.85781706986769</v>
       </c>
       <c r="C338" t="n">
-        <v>61.86203393813715</v>
+        <v>56.88114609787225</v>
       </c>
       <c r="D338" t="n">
-        <v>-0.0288076178997656</v>
+        <v>-0.02332902800456083</v>
       </c>
     </row>
     <row r="339">
@@ -5173,13 +5173,13 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>61.83346521495509</v>
+        <v>56.89773927492869</v>
       </c>
       <c r="C339" t="n">
-        <v>61.8571436007558</v>
+        <v>56.90088523073042</v>
       </c>
       <c r="D339" t="n">
-        <v>-0.02367838580071435</v>
+        <v>-0.003145955801727496</v>
       </c>
     </row>
     <row r="340">
@@ -5187,13 +5187,13 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>61.8454441536453</v>
+        <v>60.53094790544626</v>
       </c>
       <c r="C340" t="n">
-        <v>61.95143659423609</v>
+        <v>60.55499012924826</v>
       </c>
       <c r="D340" t="n">
-        <v>-0.1059924405907964</v>
+        <v>-0.02404222380199883</v>
       </c>
     </row>
     <row r="341">
@@ -5201,13 +5201,13 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>61.90417029048116</v>
+        <v>60.55470327552327</v>
       </c>
       <c r="C341" t="n">
-        <v>61.91009791901505</v>
+        <v>60.64821065787922</v>
       </c>
       <c r="D341" t="n">
-        <v>-0.005927628533889617</v>
+        <v>-0.09350738235594491</v>
       </c>
     </row>
     <row r="342">
@@ -5215,13 +5215,13 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>61.90854521320907</v>
+        <v>60.56680447943725</v>
       </c>
       <c r="C342" t="n">
-        <v>61.94962685358914</v>
+        <v>60.69988381726399</v>
       </c>
       <c r="D342" t="n">
-        <v>-0.041081640380078</v>
+        <v>-0.133079337826743</v>
       </c>
     </row>
     <row r="343">
@@ -5229,13 +5229,13 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>61.9190768303995</v>
+        <v>60.5704676897166</v>
       </c>
       <c r="C343" t="n">
-        <v>61.955363999333</v>
+        <v>60.65040558317782</v>
       </c>
       <c r="D343" t="n">
-        <v>-0.03628716893350514</v>
+        <v>-0.07993789346122071</v>
       </c>
     </row>
     <row r="344">
@@ -5243,13 +5243,13 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>61.94473918464538</v>
+        <v>60.57296430710889</v>
       </c>
       <c r="C344" t="n">
-        <v>61.97844958977583</v>
+        <v>60.67679182606732</v>
       </c>
       <c r="D344" t="n">
-        <v>-0.03371040513044932</v>
+        <v>-0.1038275189584326</v>
       </c>
     </row>
     <row r="345">
@@ -5257,13 +5257,13 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>61.98941157478865</v>
+        <v>60.57556255160762</v>
       </c>
       <c r="C345" t="n">
-        <v>61.74686905186349</v>
+        <v>60.61799557524634</v>
       </c>
       <c r="D345" t="n">
-        <v>0.242542522925163</v>
+        <v>-0.04243302363872203</v>
       </c>
     </row>
     <row r="346">
@@ -5271,13 +5271,13 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>62.05186430417039</v>
+        <v>60.59598662984607</v>
       </c>
       <c r="C346" t="n">
-        <v>62.07513198286949</v>
+        <v>60.68868286298002</v>
       </c>
       <c r="D346" t="n">
-        <v>-0.02326767869909219</v>
+        <v>-0.09269623313394959</v>
       </c>
     </row>
     <row r="347">
@@ -5285,13 +5285,13 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>62.06042395963427</v>
+        <v>60.61392023990133</v>
       </c>
       <c r="C347" t="n">
-        <v>62.12956646705806</v>
+        <v>60.67977733957669</v>
       </c>
       <c r="D347" t="n">
-        <v>-0.06914250742379124</v>
+        <v>-0.06585709967535536</v>
       </c>
     </row>
     <row r="348">
@@ -5299,13 +5299,13 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>62.13365149838295</v>
+        <v>60.6194686500137</v>
       </c>
       <c r="C348" t="n">
-        <v>62.1614865734496</v>
+        <v>60.65266645462184</v>
       </c>
       <c r="D348" t="n">
-        <v>-0.02783507506664762</v>
+        <v>-0.03319780460813604</v>
       </c>
     </row>
     <row r="349">
@@ -5313,13 +5313,13 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>62.14224378240896</v>
+        <v>60.65972298514158</v>
       </c>
       <c r="C349" t="n">
-        <v>62.15850312327309</v>
+        <v>60.66311730631374</v>
       </c>
       <c r="D349" t="n">
-        <v>-0.01625934086413139</v>
+        <v>-0.003394321172152104</v>
       </c>
     </row>
     <row r="350">
@@ -5327,13 +5327,13 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>62.16886642391112</v>
+        <v>60.69428080579231</v>
       </c>
       <c r="C350" t="n">
-        <v>62.17846206967042</v>
+        <v>60.70108147729692</v>
       </c>
       <c r="D350" t="n">
-        <v>-0.009595645759297611</v>
+        <v>-0.006800671504613831</v>
       </c>
     </row>
     <row r="351">
@@ -5341,13 +5341,13 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>62.19825291466996</v>
+        <v>62.31901260921842</v>
       </c>
       <c r="C351" t="n">
-        <v>62.20908639450388</v>
+        <v>62.37692602975095</v>
       </c>
       <c r="D351" t="n">
-        <v>-0.01083347983392002</v>
+        <v>-0.05791342053253601</v>
       </c>
     </row>
     <row r="352">
@@ -5355,13 +5355,13 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>62.20511420458684</v>
+        <v>62.33803085584236</v>
       </c>
       <c r="C352" t="n">
-        <v>62.2057447063967</v>
+        <v>62.45047832252468</v>
       </c>
       <c r="D352" t="n">
-        <v>-0.0006305018098586856</v>
+        <v>-0.112447466682319</v>
       </c>
     </row>
     <row r="353">
@@ -5369,13 +5369,13 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>64.09583246035272</v>
+        <v>62.34111676884122</v>
       </c>
       <c r="C353" t="n">
-        <v>64.20169802508228</v>
+        <v>62.36212010250411</v>
       </c>
       <c r="D353" t="n">
-        <v>-0.1058655647295552</v>
+        <v>-0.02100333366289675</v>
       </c>
     </row>
     <row r="354">
@@ -5383,13 +5383,13 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>64.11910162265663</v>
+        <v>62.36867772154956</v>
       </c>
       <c r="C354" t="n">
-        <v>64.19068937651861</v>
+        <v>62.46837749225885</v>
       </c>
       <c r="D354" t="n">
-        <v>-0.07158775386197647</v>
+        <v>-0.09969977070928593</v>
       </c>
     </row>
     <row r="355">
@@ -5397,13 +5397,13 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>64.13404382648669</v>
+        <v>62.38317314377404</v>
       </c>
       <c r="C355" t="n">
-        <v>64.22983095640312</v>
+        <v>62.3888451235678</v>
       </c>
       <c r="D355" t="n">
-        <v>-0.09578712991643101</v>
+        <v>-0.005671979793767434</v>
       </c>
     </row>
     <row r="356">
@@ -5411,13 +5411,13 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>64.17381875096895</v>
+        <v>62.40529240674925</v>
       </c>
       <c r="C356" t="n">
-        <v>64.2101814825421</v>
+        <v>62.47309095436316</v>
       </c>
       <c r="D356" t="n">
-        <v>-0.03636273157314918</v>
+        <v>-0.06779854761391135</v>
       </c>
     </row>
     <row r="357">
@@ -5425,13 +5425,13 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>64.21519867390094</v>
+        <v>62.42427760046848</v>
       </c>
       <c r="C357" t="n">
-        <v>64.2259206952029</v>
+        <v>62.45730742624966</v>
       </c>
       <c r="D357" t="n">
-        <v>-0.01072202130195876</v>
+        <v>-0.03302982578118474</v>
       </c>
     </row>
     <row r="358">
@@ -5439,13 +5439,13 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>66.54203689127488</v>
+        <v>62.43296776071714</v>
       </c>
       <c r="C358" t="n">
-        <v>66.63660316885159</v>
+        <v>62.47878758824455</v>
       </c>
       <c r="D358" t="n">
-        <v>-0.09456627757671754</v>
+        <v>-0.04581982752740998</v>
       </c>
     </row>
     <row r="359">
@@ -5453,13 +5453,13 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>66.55386098275406</v>
+        <v>62.43510652681506</v>
       </c>
       <c r="C359" t="n">
-        <v>66.5798963510377</v>
+        <v>62.46641424748702</v>
       </c>
       <c r="D359" t="n">
-        <v>-0.02603536828364383</v>
+        <v>-0.03130772067196119</v>
       </c>
     </row>
     <row r="360">
@@ -5467,13 +5467,13 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>66.5768250278594</v>
+        <v>62.43625162138993</v>
       </c>
       <c r="C360" t="n">
-        <v>66.59593637318771</v>
+        <v>62.43675303497737</v>
       </c>
       <c r="D360" t="n">
-        <v>-0.01911134532831227</v>
+        <v>-0.0005014135874432668</v>
       </c>
     </row>
     <row r="361">
@@ -5481,13 +5481,13 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>66.58781031214153</v>
+        <v>62.44778901826707</v>
       </c>
       <c r="C361" t="n">
-        <v>66.66146167543747</v>
+        <v>62.44824610458062</v>
       </c>
       <c r="D361" t="n">
-        <v>-0.07365136329593724</v>
+        <v>-0.0004570863135455738</v>
       </c>
     </row>
     <row r="362">
@@ -5495,13 +5495,13 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>66.59674556110549</v>
+        <v>62.68638962942426</v>
       </c>
       <c r="C362" t="n">
-        <v>66.65226347718604</v>
+        <v>62.72619029064707</v>
       </c>
       <c r="D362" t="n">
-        <v>-0.05551791608054657</v>
+        <v>-0.0398006612228059</v>
       </c>
     </row>
     <row r="363">
@@ -5509,13 +5509,13 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>66.61150680262548</v>
+        <v>62.69957259835211</v>
       </c>
       <c r="C363" t="n">
-        <v>66.69223978932094</v>
+        <v>62.83211072192726</v>
       </c>
       <c r="D363" t="n">
-        <v>-0.08073298669545181</v>
+        <v>-0.1325381235751451</v>
       </c>
     </row>
     <row r="364">
@@ -5523,13 +5523,13 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>66.61430222678656</v>
+        <v>62.70786244296761</v>
       </c>
       <c r="C364" t="n">
-        <v>66.69622035325932</v>
+        <v>62.83261416146237</v>
       </c>
       <c r="D364" t="n">
-        <v>-0.08191812647275754</v>
+        <v>-0.124751718494764</v>
       </c>
     </row>
     <row r="365">
@@ -5537,13 +5537,13 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>66.62087080351618</v>
+        <v>62.72144324901764</v>
       </c>
       <c r="C365" t="n">
-        <v>66.66422149548231</v>
+        <v>62.73021681934716</v>
       </c>
       <c r="D365" t="n">
-        <v>-0.04335069196612551</v>
+        <v>-0.008773570329516645</v>
       </c>
     </row>
     <row r="366">
@@ -5551,13 +5551,13 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>66.64236216180976</v>
+        <v>62.75390497702373</v>
       </c>
       <c r="C366" t="n">
-        <v>66.69436697822464</v>
+        <v>62.80464278407552</v>
       </c>
       <c r="D366" t="n">
-        <v>-0.05200481641487897</v>
+        <v>-0.05073780705178876</v>
       </c>
     </row>
     <row r="367">
@@ -5565,13 +5565,13 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>66.65110317838324</v>
+        <v>62.75715050184247</v>
       </c>
       <c r="C367" t="n">
-        <v>66.6767619701512</v>
+        <v>62.8242883561905</v>
       </c>
       <c r="D367" t="n">
-        <v>-0.0256587917679667</v>
+        <v>-0.06713785434802588</v>
       </c>
     </row>
     <row r="368">
@@ -5579,13 +5579,13 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>66.652093119722</v>
+        <v>62.76627946640891</v>
       </c>
       <c r="C368" t="n">
-        <v>66.69815279061348</v>
+        <v>62.80217669345888</v>
       </c>
       <c r="D368" t="n">
-        <v>-0.04605967089148066</v>
+        <v>-0.0358972270499649</v>
       </c>
     </row>
     <row r="369">
@@ -5593,13 +5593,13 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>66.65770784868414</v>
+        <v>62.77827591427102</v>
       </c>
       <c r="C369" t="n">
-        <v>66.67507922855309</v>
+        <v>62.80955423006471</v>
       </c>
       <c r="D369" t="n">
-        <v>-0.01737137986894766</v>
+        <v>-0.031278315793692</v>
       </c>
     </row>
     <row r="370">
@@ -5607,13 +5607,13 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>66.67100280088732</v>
+        <v>62.79352696841173</v>
       </c>
       <c r="C370" t="n">
-        <v>66.68616427829174</v>
+        <v>62.83579591931087</v>
       </c>
       <c r="D370" t="n">
-        <v>-0.01516147740441909</v>
+        <v>-0.0422689508991354</v>
       </c>
     </row>
     <row r="371">
@@ -5621,13 +5621,13 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>66.97398976998967</v>
+        <v>62.80807289820739</v>
       </c>
       <c r="C371" t="n">
-        <v>67.05774798373612</v>
+        <v>62.8468308167464</v>
       </c>
       <c r="D371" t="n">
-        <v>-0.08375821374644943</v>
+        <v>-0.03875791853900523</v>
       </c>
     </row>
     <row r="372">
@@ -5635,13 +5635,13 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>66.97728906673349</v>
+        <v>65.31729604155194</v>
       </c>
       <c r="C372" t="n">
-        <v>66.98636916118758</v>
+        <v>65.32543629489626</v>
       </c>
       <c r="D372" t="n">
-        <v>-0.009080094454091636</v>
+        <v>-0.008140253344322446</v>
       </c>
     </row>
     <row r="373">
@@ -5649,13 +5649,13 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>66.98516679269034</v>
+        <v>65.33555207471969</v>
       </c>
       <c r="C373" t="n">
-        <v>67.05276763043602</v>
+        <v>65.42733740357978</v>
       </c>
       <c r="D373" t="n">
-        <v>-0.0676008377456867</v>
+        <v>-0.09178532886009805</v>
       </c>
     </row>
     <row r="374">
@@ -5663,13 +5663,13 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>66.98705968725432</v>
+        <v>65.34352900132158</v>
       </c>
       <c r="C374" t="n">
-        <v>67.03585567106536</v>
+        <v>65.36309239836811</v>
       </c>
       <c r="D374" t="n">
-        <v>-0.04879598381104699</v>
+        <v>-0.01956339704652521</v>
       </c>
     </row>
     <row r="375">
@@ -5677,13 +5677,13 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>67.00307756208622</v>
+        <v>65.34569965035789</v>
       </c>
       <c r="C375" t="n">
-        <v>66.69506539747383</v>
+        <v>65.43397796928065</v>
       </c>
       <c r="D375" t="n">
-        <v>0.3080121646123928</v>
+        <v>-0.08827831892276095</v>
       </c>
     </row>
     <row r="376">
@@ -5691,13 +5691,13 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>67.00487277924874</v>
+        <v>65.36827537307742</v>
       </c>
       <c r="C376" t="n">
-        <v>67.04578037245945</v>
+        <v>65.43521373957604</v>
       </c>
       <c r="D376" t="n">
-        <v>-0.04090759321070436</v>
+        <v>-0.06693836649861851</v>
       </c>
     </row>
     <row r="377">
@@ -5705,13 +5705,13 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>67.01306356738273</v>
+        <v>65.38278818192262</v>
       </c>
       <c r="C377" t="n">
-        <v>67.08640373952204</v>
+        <v>65.4524964765402</v>
       </c>
       <c r="D377" t="n">
-        <v>-0.07334017213931077</v>
+        <v>-0.06970829461758399</v>
       </c>
     </row>
     <row r="378">
@@ -5719,13 +5719,13 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>67.0208630976587</v>
+        <v>65.38419584915921</v>
       </c>
       <c r="C378" t="n">
-        <v>67.07545766408788</v>
+        <v>65.45135661046203</v>
       </c>
       <c r="D378" t="n">
-        <v>-0.0545945664291736</v>
+        <v>-0.06716076130281579</v>
       </c>
     </row>
     <row r="379">
@@ -5733,13 +5733,13 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>67.55738888615394</v>
+        <v>65.39590975936898</v>
       </c>
       <c r="C379" t="n">
-        <v>67.68366012520961</v>
+        <v>65.44428680662034</v>
       </c>
       <c r="D379" t="n">
-        <v>-0.1262712390556686</v>
+        <v>-0.04837704725136405</v>
       </c>
     </row>
     <row r="380">
@@ -5747,13 +5747,13 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>67.57031137784094</v>
+        <v>65.4288209532737</v>
       </c>
       <c r="C380" t="n">
-        <v>67.59217190202507</v>
+        <v>65.452446779936</v>
       </c>
       <c r="D380" t="n">
-        <v>-0.02186052418413453</v>
+        <v>-0.02362582666229684</v>
       </c>
     </row>
     <row r="381">
@@ -5761,13 +5761,13 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>67.57246802182219</v>
+        <v>76.53776748414062</v>
       </c>
       <c r="C381" t="n">
-        <v>67.67605684514378</v>
+        <v>76.68346215555557</v>
       </c>
       <c r="D381" t="n">
-        <v>-0.1035888233215871</v>
+        <v>-0.1456946714149581</v>
       </c>
     </row>
     <row r="382">
@@ -5775,13 +5775,13 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>67.5770372200766</v>
+        <v>76.54347307847915</v>
       </c>
       <c r="C382" t="n">
-        <v>67.59965261568421</v>
+        <v>76.67226700874248</v>
       </c>
       <c r="D382" t="n">
-        <v>-0.02261539560760184</v>
+        <v>-0.1287939302633276</v>
       </c>
     </row>
     <row r="383">
@@ -5789,13 +5789,13 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>67.58096731773924</v>
+        <v>76.56454097868532</v>
       </c>
       <c r="C383" t="n">
-        <v>67.69968177907941</v>
+        <v>76.65644781217553</v>
       </c>
       <c r="D383" t="n">
-        <v>-0.1187144613401756</v>
+        <v>-0.09190683349021356</v>
       </c>
     </row>
     <row r="384">
@@ -5803,13 +5803,13 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>67.59463655185394</v>
+        <v>76.56957982126751</v>
       </c>
       <c r="C384" t="n">
-        <v>67.59866884896947</v>
+        <v>76.62501280421144</v>
       </c>
       <c r="D384" t="n">
-        <v>-0.004032297115529104</v>
+        <v>-0.05543298294392685</v>
       </c>
     </row>
     <row r="385">
@@ -5817,13 +5817,13 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>67.63792980598352</v>
+        <v>76.57326655077384</v>
       </c>
       <c r="C385" t="n">
-        <v>67.67235019647813</v>
+        <v>76.65275316169026</v>
       </c>
       <c r="D385" t="n">
-        <v>-0.03442039049461698</v>
+        <v>-0.07948661091641895</v>
       </c>
     </row>
     <row r="386">
@@ -5831,13 +5831,13 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>67.64589702716195</v>
+        <v>76.58022495781212</v>
       </c>
       <c r="C386" t="n">
-        <v>67.66020523849501</v>
+        <v>76.67168931956112</v>
       </c>
       <c r="D386" t="n">
-        <v>-0.01430821133305926</v>
+        <v>-0.0914643617490043</v>
       </c>
     </row>
     <row r="387">
@@ -5845,13 +5845,13 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>67.66577248839783</v>
+        <v>76.58662652893186</v>
       </c>
       <c r="C387" t="n">
-        <v>67.6716266940016</v>
+        <v>76.66221310740816</v>
       </c>
       <c r="D387" t="n">
-        <v>-0.005854205603768037</v>
+        <v>-0.07558657847630457</v>
       </c>
     </row>
     <row r="388">
@@ -5859,13 +5859,13 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>67.69080235694113</v>
+        <v>76.58833233224247</v>
       </c>
       <c r="C388" t="n">
-        <v>67.69495785139752</v>
+        <v>76.59182623663895</v>
       </c>
       <c r="D388" t="n">
-        <v>-0.00415549445638419</v>
+        <v>-0.003493904396478342</v>
       </c>
     </row>
     <row r="389">
@@ -5873,13 +5873,13 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>67.69914843887486</v>
+        <v>76.59955852720337</v>
       </c>
       <c r="C389" t="n">
-        <v>67.70039989439381</v>
+        <v>76.65860658591158</v>
       </c>
       <c r="D389" t="n">
-        <v>-0.001251455518954003</v>
+        <v>-0.05904805870821406</v>
       </c>
     </row>
     <row r="390">
@@ -5887,13 +5887,13 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>70.32431563084673</v>
+        <v>76.62732050020047</v>
       </c>
       <c r="C390" t="n">
-        <v>70.48880808367096</v>
+        <v>76.64077835782113</v>
       </c>
       <c r="D390" t="n">
-        <v>-0.1644924528242342</v>
+        <v>-0.01345785762066498</v>
       </c>
     </row>
     <row r="391">
@@ -5901,13 +5901,13 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>70.34075256961049</v>
+        <v>76.64724414875722</v>
       </c>
       <c r="C391" t="n">
-        <v>70.41606648816425</v>
+        <v>76.64807698898042</v>
       </c>
       <c r="D391" t="n">
-        <v>-0.07531391855376057</v>
+        <v>-0.0008328402231967402</v>
       </c>
     </row>
     <row r="392">
@@ -5915,13 +5915,13 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>70.37342526571057</v>
+        <v>76.64812817748076</v>
       </c>
       <c r="C392" t="n">
-        <v>70.50596258559483</v>
+        <v>76.65579833381311</v>
       </c>
       <c r="D392" t="n">
-        <v>-0.1325373198842641</v>
+        <v>-0.007670156332352462</v>
       </c>
     </row>
     <row r="393">
@@ -5929,13 +5929,13 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>70.3887148168573</v>
+        <v>78.65542193254718</v>
       </c>
       <c r="C393" t="n">
-        <v>70.4342365009439</v>
+        <v>78.73733266637393</v>
       </c>
       <c r="D393" t="n">
-        <v>-0.04552168408659441</v>
+        <v>-0.08191073382674574</v>
       </c>
     </row>
     <row r="394">
@@ -5943,13 +5943,13 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>70.39159213177396</v>
+        <v>78.67895920500494</v>
       </c>
       <c r="C394" t="n">
-        <v>70.40335344295674</v>
+        <v>78.75796326076951</v>
       </c>
       <c r="D394" t="n">
-        <v>-0.01176131118278079</v>
+        <v>-0.07900405576457104</v>
       </c>
     </row>
     <row r="395">
@@ -5957,13 +5957,13 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>70.39943836569897</v>
+        <v>78.68178977031161</v>
       </c>
       <c r="C395" t="n">
-        <v>70.43631132580636</v>
+        <v>78.69229572909002</v>
       </c>
       <c r="D395" t="n">
-        <v>-0.03687296010738805</v>
+        <v>-0.01050595877840976</v>
       </c>
     </row>
     <row r="396">
@@ -5971,13 +5971,13 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>70.4509008661619</v>
+        <v>78.68741306188511</v>
       </c>
       <c r="C396" t="n">
-        <v>70.5035837999519</v>
+        <v>78.7725083668563</v>
       </c>
       <c r="D396" t="n">
-        <v>-0.05268293378999545</v>
+        <v>-0.08509530497119044</v>
       </c>
     </row>
     <row r="397">
@@ -5985,13 +5985,13 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>70.47472762556897</v>
+        <v>78.69363191471768</v>
       </c>
       <c r="C397" t="n">
-        <v>70.49766409407499</v>
+        <v>78.80251451909218</v>
       </c>
       <c r="D397" t="n">
-        <v>-0.0229364685060176</v>
+        <v>-0.1088826043745001</v>
       </c>
     </row>
     <row r="398">
@@ -5999,13 +5999,13 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>74.23465026123172</v>
+        <v>78.69756712598301</v>
       </c>
       <c r="C398" t="n">
-        <v>74.40230170998382</v>
+        <v>78.72931381634518</v>
       </c>
       <c r="D398" t="n">
-        <v>-0.1676514487520961</v>
+        <v>-0.03174669036216926</v>
       </c>
     </row>
     <row r="399">
@@ -6013,13 +6013,13 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>74.24820291514968</v>
+        <v>78.71002108700517</v>
       </c>
       <c r="C399" t="n">
-        <v>74.30168253154365</v>
+        <v>78.77751865743259</v>
       </c>
       <c r="D399" t="n">
-        <v>-0.0534796163939717</v>
+        <v>-0.06749757042742033</v>
       </c>
     </row>
     <row r="400">
@@ -6027,13 +6027,13 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>74.24925948436965</v>
+        <v>78.73429372387167</v>
       </c>
       <c r="C400" t="n">
-        <v>74.40106157663803</v>
+        <v>78.81044716872488</v>
       </c>
       <c r="D400" t="n">
-        <v>-0.1518020922683831</v>
+        <v>-0.07615344485320463</v>
       </c>
     </row>
     <row r="401">
@@ -6041,13 +6041,13 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>74.26008168603454</v>
+        <v>78.7631379500087</v>
       </c>
       <c r="C401" t="n">
-        <v>74.28384569067903</v>
+        <v>78.78471890818689</v>
       </c>
       <c r="D401" t="n">
-        <v>-0.02376400464449091</v>
+        <v>-0.02158095817819117</v>
       </c>
     </row>
     <row r="402">
@@ -6055,13 +6055,13 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>74.26064824975198</v>
+        <v>78.77222313714135</v>
       </c>
       <c r="C402" t="n">
-        <v>74.34527169251521</v>
+        <v>78.78643540042903</v>
       </c>
       <c r="D402" t="n">
-        <v>-0.08462344276323108</v>
+        <v>-0.01421226328767489</v>
       </c>
     </row>
     <row r="403">
@@ -6069,13 +6069,13 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>74.28329641977469</v>
+        <v>80.17444212470318</v>
       </c>
       <c r="C403" t="n">
-        <v>74.36419450047647</v>
+        <v>80.18071972855083</v>
       </c>
       <c r="D403" t="n">
-        <v>-0.08089808070178606</v>
+        <v>-0.006277603847649971</v>
       </c>
     </row>
     <row r="404">
@@ -6083,13 +6083,13 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>74.28765906491481</v>
+        <v>80.17749140904363</v>
       </c>
       <c r="C404" t="n">
-        <v>74.39069383377633</v>
+        <v>80.19050816275741</v>
       </c>
       <c r="D404" t="n">
-        <v>-0.1030347688615194</v>
+        <v>-0.01301675371378508</v>
       </c>
     </row>
     <row r="405">
@@ -6097,13 +6097,13 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>74.3303003784478</v>
+        <v>80.19717629150526</v>
       </c>
       <c r="C405" t="n">
-        <v>74.40295296161266</v>
+        <v>80.24503849890971</v>
       </c>
       <c r="D405" t="n">
-        <v>-0.07265258316485301</v>
+        <v>-0.04786220740444946</v>
       </c>
     </row>
     <row r="406">
@@ -6111,13 +6111,13 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>76.44703996228569</v>
+        <v>80.21171855977313</v>
       </c>
       <c r="C406" t="n">
-        <v>76.55105420076249</v>
+        <v>80.28553803376695</v>
       </c>
       <c r="D406" t="n">
-        <v>-0.1040142384768075</v>
+        <v>-0.07381947399382227</v>
       </c>
     </row>
     <row r="407">
@@ -6125,13 +6125,13 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>76.46365885242007</v>
+        <v>80.21719831519924</v>
       </c>
       <c r="C407" t="n">
-        <v>76.49395104016632</v>
+        <v>80.27452166833184</v>
       </c>
       <c r="D407" t="n">
-        <v>-0.03029218774625519</v>
+        <v>-0.05732335313260251</v>
       </c>
     </row>
     <row r="408">
@@ -6139,13 +6139,13 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>76.46405958102534</v>
+        <v>80.22655958978578</v>
       </c>
       <c r="C408" t="n">
-        <v>76.53089531277193</v>
+        <v>80.24959451549171</v>
       </c>
       <c r="D408" t="n">
-        <v>-0.0668357317465933</v>
+        <v>-0.0230349257059288</v>
       </c>
     </row>
     <row r="409">
@@ -6153,13 +6153,13 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>76.48809504503119</v>
+        <v>80.26445498957374</v>
       </c>
       <c r="C409" t="n">
-        <v>76.60638297546799</v>
+        <v>80.29257764022599</v>
       </c>
       <c r="D409" t="n">
-        <v>-0.1182879304368072</v>
+        <v>-0.02812265065225006</v>
       </c>
     </row>
     <row r="410">
@@ -6167,13 +6167,13 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>76.49848065438991</v>
+        <v>80.27226788380622</v>
       </c>
       <c r="C410" t="n">
-        <v>76.52323710171322</v>
+        <v>80.3324735612315</v>
       </c>
       <c r="D410" t="n">
-        <v>-0.02475644732331261</v>
+        <v>-0.06020567742527305</v>
       </c>
     </row>
     <row r="411">
@@ -6181,13 +6181,13 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>76.51456703075813</v>
+        <v>80.27799027442124</v>
       </c>
       <c r="C411" t="n">
-        <v>76.5731066563864</v>
+        <v>80.33416271589705</v>
       </c>
       <c r="D411" t="n">
-        <v>-0.05853962562827064</v>
+        <v>-0.05617244147580891</v>
       </c>
     </row>
     <row r="412">
@@ -6195,13 +6195,13 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>76.51570577400564</v>
+        <v>80.44433127589177</v>
       </c>
       <c r="C412" t="n">
-        <v>76.58305904415923</v>
+        <v>80.32948690470489</v>
       </c>
       <c r="D412" t="n">
-        <v>-0.06735327015358905</v>
+        <v>0.1148443711868765</v>
       </c>
     </row>
     <row r="413">
@@ -6209,13 +6209,13 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>76.52299979677549</v>
+        <v>83.58077618557012</v>
       </c>
       <c r="C413" t="n">
-        <v>76.62065654462923</v>
+        <v>83.65321030912841</v>
       </c>
       <c r="D413" t="n">
-        <v>-0.09765674785373335</v>
+        <v>-0.07243412355829548</v>
       </c>
     </row>
     <row r="414">
@@ -6223,13 +6223,13 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>76.52577260497861</v>
+        <v>83.58791324629647</v>
       </c>
       <c r="C414" t="n">
-        <v>76.5954149947475</v>
+        <v>83.67840294918039</v>
       </c>
       <c r="D414" t="n">
-        <v>-0.06964238976888737</v>
+        <v>-0.09048970288392866</v>
       </c>
     </row>
     <row r="415">
@@ -6237,13 +6237,13 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>76.55706288813441</v>
+        <v>83.58901718308064</v>
       </c>
       <c r="C415" t="n">
-        <v>76.61645375660639</v>
+        <v>83.70867874152795</v>
       </c>
       <c r="D415" t="n">
-        <v>-0.05939086847197927</v>
+        <v>-0.1196615584473051</v>
       </c>
     </row>
     <row r="416">
@@ -6251,13 +6251,13 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>76.56138661393064</v>
+        <v>83.5890717336579</v>
       </c>
       <c r="C416" t="n">
-        <v>76.56808991287856</v>
+        <v>83.59037087491646</v>
       </c>
       <c r="D416" t="n">
-        <v>-0.006703298947925873</v>
+        <v>-0.001299141258556347</v>
       </c>
     </row>
     <row r="417">
@@ -6265,13 +6265,13 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>76.57020984274155</v>
+        <v>83.61873265106063</v>
       </c>
       <c r="C417" t="n">
-        <v>76.60139697316653</v>
+        <v>83.66182992565172</v>
       </c>
       <c r="D417" t="n">
-        <v>-0.031187130424982</v>
+        <v>-0.0430972745910907</v>
       </c>
     </row>
     <row r="418">
@@ -6279,13 +6279,13 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>76.57933368928705</v>
+        <v>83.62188226867156</v>
       </c>
       <c r="C418" t="n">
-        <v>76.60501373553122</v>
+        <v>83.65681423329404</v>
       </c>
       <c r="D418" t="n">
-        <v>-0.02568004624416176</v>
+        <v>-0.03493196462248704</v>
       </c>
     </row>
     <row r="419">
@@ -6293,13 +6293,13 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>76.59594018174489</v>
+        <v>83.64734019842052</v>
       </c>
       <c r="C419" t="n">
-        <v>76.61762377815796</v>
+        <v>83.66502236530363</v>
       </c>
       <c r="D419" t="n">
-        <v>-0.02168359641306949</v>
+        <v>-0.01768216688310531</v>
       </c>
     </row>
     <row r="420">
@@ -6307,13 +6307,13 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>76.67879363942349</v>
+        <v>83.67312680581558</v>
       </c>
       <c r="C420" t="n">
-        <v>76.58726426580498</v>
+        <v>83.68511267576453</v>
       </c>
       <c r="D420" t="n">
-        <v>0.09152937361851343</v>
+        <v>-0.01198586994894413</v>
       </c>
     </row>
     <row r="421">
@@ -6321,13 +6321,13 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>78.95592906590348</v>
+        <v>83.72280812048349</v>
       </c>
       <c r="C421" t="n">
-        <v>79.11169727535658</v>
+        <v>83.72938447906668</v>
       </c>
       <c r="D421" t="n">
-        <v>-0.1557682094531003</v>
+        <v>-0.006576358583188835</v>
       </c>
     </row>
     <row r="422">
@@ -6335,13 +6335,13 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>78.95949124513997</v>
+        <v>83.86028995688407</v>
       </c>
       <c r="C422" t="n">
-        <v>78.96743028372036</v>
+        <v>83.90064191528863</v>
       </c>
       <c r="D422" t="n">
-        <v>-0.007939038580389024</v>
+        <v>-0.04035195840455685</v>
       </c>
     </row>
     <row r="423">
@@ -6349,13 +6349,13 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>78.99018364554908</v>
+        <v>83.86483457113233</v>
       </c>
       <c r="C423" t="n">
-        <v>79.0023344046207</v>
+        <v>83.94199969961039</v>
       </c>
       <c r="D423" t="n">
-        <v>-0.01215075907161633</v>
+        <v>-0.07716512847805745</v>
       </c>
     </row>
     <row r="424">
@@ -6363,13 +6363,13 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>78.99804146306202</v>
+        <v>83.87022105435457</v>
       </c>
       <c r="C424" t="n">
-        <v>79.01615397835813</v>
+        <v>83.9327629885405</v>
       </c>
       <c r="D424" t="n">
-        <v>-0.01811251529611013</v>
+        <v>-0.0625419341859299</v>
       </c>
     </row>
     <row r="425">
@@ -6377,13 +6377,13 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>79.00151007031957</v>
+        <v>83.89824280630715</v>
       </c>
       <c r="C425" t="n">
-        <v>79.01783503339927</v>
+        <v>83.97224580645697</v>
       </c>
       <c r="D425" t="n">
-        <v>-0.01632496307969689</v>
+        <v>-0.07400300014981553</v>
       </c>
     </row>
     <row r="426">
@@ -6391,13 +6391,13 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>79.00194478055566</v>
+        <v>83.90058528598482</v>
       </c>
       <c r="C426" t="n">
-        <v>79.090669380259</v>
+        <v>83.94469837667584</v>
       </c>
       <c r="D426" t="n">
-        <v>-0.08872459970334035</v>
+        <v>-0.04411309069102742</v>
       </c>
     </row>
     <row r="427">
@@ -6405,13 +6405,13 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>79.02443053455413</v>
+        <v>83.93082503908425</v>
       </c>
       <c r="C427" t="n">
-        <v>79.04052103001744</v>
+        <v>83.93796632311934</v>
       </c>
       <c r="D427" t="n">
-        <v>-0.01609049546331676</v>
+        <v>-0.00714128403508596</v>
       </c>
     </row>
     <row r="428">
@@ -6419,13 +6419,13 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>79.03037923618452</v>
+        <v>83.93829740063299</v>
       </c>
       <c r="C428" t="n">
-        <v>79.053428432811</v>
+        <v>83.9457502604502</v>
       </c>
       <c r="D428" t="n">
-        <v>-0.02304919662648786</v>
+        <v>-0.007452859817206559</v>
       </c>
     </row>
     <row r="429">
@@ -6433,13 +6433,13 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>79.03753321239751</v>
+        <v>83.94271994317116</v>
       </c>
       <c r="C429" t="n">
-        <v>79.13089641461076</v>
+        <v>83.95626480248225</v>
       </c>
       <c r="D429" t="n">
-        <v>-0.09336320221325423</v>
+        <v>-0.0135448593110965</v>
       </c>
     </row>
     <row r="430">
@@ -6447,13 +6447,13 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>79.03874202012058</v>
+        <v>83.95150716877296</v>
       </c>
       <c r="C430" t="n">
-        <v>79.13666751596993</v>
+        <v>83.97241313646779</v>
       </c>
       <c r="D430" t="n">
-        <v>-0.09792549584935273</v>
+        <v>-0.02090596769483</v>
       </c>
     </row>
     <row r="431">
@@ -6461,13 +6461,13 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>79.05741869642603</v>
+        <v>83.95777005763956</v>
       </c>
       <c r="C431" t="n">
-        <v>79.13149882804404</v>
+        <v>83.98590116096439</v>
       </c>
       <c r="D431" t="n">
-        <v>-0.07408013161801819</v>
+        <v>-0.02813110332482438</v>
       </c>
     </row>
     <row r="432">
@@ -6475,13 +6475,13 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>79.08371024327063</v>
+        <v>83.9689139755077</v>
       </c>
       <c r="C432" t="n">
-        <v>79.10686343139888</v>
+        <v>83.97018582460728</v>
       </c>
       <c r="D432" t="n">
-        <v>-0.02315318812824785</v>
+        <v>-0.001271849099580891</v>
       </c>
     </row>
     <row r="433">
@@ -6489,13 +6489,13 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>79.09516612201833</v>
+        <v>83.98103473269373</v>
       </c>
       <c r="C433" t="n">
-        <v>79.12898129514552</v>
+        <v>83.99733608105855</v>
       </c>
       <c r="D433" t="n">
-        <v>-0.03381517312719495</v>
+        <v>-0.01630134836482</v>
       </c>
     </row>
     <row r="434">
@@ -6503,13 +6503,13 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>79.10612074546381</v>
+        <v>84.10558765333489</v>
       </c>
       <c r="C434" t="n">
-        <v>79.11058731978946</v>
+        <v>83.94281190989142</v>
       </c>
       <c r="D434" t="n">
-        <v>-0.004466574325647343</v>
+        <v>0.1627757434434756</v>
       </c>
     </row>
     <row r="435">
@@ -6517,13 +6517,13 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>79.1250613573697</v>
+        <v>84.26673832961939</v>
       </c>
       <c r="C435" t="n">
-        <v>79.13632947464806</v>
+        <v>83.87966928581719</v>
       </c>
       <c r="D435" t="n">
-        <v>-0.01126811727836241</v>
+        <v>0.3870690438021995</v>
       </c>
     </row>
     <row r="436">
@@ -6531,13 +6531,13 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>80.10000224514052</v>
+        <v>86.92115293524287</v>
       </c>
       <c r="C436" t="n">
-        <v>80.24467473286745</v>
+        <v>87.03915814370666</v>
       </c>
       <c r="D436" t="n">
-        <v>-0.1446724877269361</v>
+        <v>-0.118005208463785</v>
       </c>
     </row>
     <row r="437">
@@ -6545,13 +6545,13 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>80.10486443053718</v>
+        <v>86.93591257164242</v>
       </c>
       <c r="C437" t="n">
-        <v>80.13137296301619</v>
+        <v>86.98725376898061</v>
       </c>
       <c r="D437" t="n">
-        <v>-0.02650853247901352</v>
+        <v>-0.0513411973381892</v>
       </c>
     </row>
     <row r="438">
@@ -6559,13 +6559,13 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>80.11899235953251</v>
+        <v>86.95313909951535</v>
       </c>
       <c r="C438" t="n">
-        <v>80.13187959575578</v>
+        <v>86.98829534265755</v>
       </c>
       <c r="D438" t="n">
-        <v>-0.01288723622326415</v>
+        <v>-0.03515624314219679</v>
       </c>
     </row>
     <row r="439">
@@ -6573,13 +6573,13 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>80.11918229085411</v>
+        <v>86.97087660297937</v>
       </c>
       <c r="C439" t="n">
-        <v>80.2550468736011</v>
+        <v>87.03628001787416</v>
       </c>
       <c r="D439" t="n">
-        <v>-0.13586458274699</v>
+        <v>-0.06540341489478863</v>
       </c>
     </row>
     <row r="440">
@@ -6587,13 +6587,13 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>80.11982208622668</v>
+        <v>86.98550516062726</v>
       </c>
       <c r="C440" t="n">
-        <v>80.22935010459406</v>
+        <v>87.01772197256473</v>
       </c>
       <c r="D440" t="n">
-        <v>-0.109528018367385</v>
+        <v>-0.03221681193747372</v>
       </c>
     </row>
     <row r="441">
@@ -6601,13 +6601,13 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>80.13438566894024</v>
+        <v>86.98944131623007</v>
       </c>
       <c r="C441" t="n">
-        <v>80.19103444711403</v>
+        <v>87.00176521338558</v>
       </c>
       <c r="D441" t="n">
-        <v>-0.05664877817379477</v>
+        <v>-0.01232389715551108</v>
       </c>
     </row>
     <row r="442">
@@ -6615,13 +6615,13 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>80.14498288051351</v>
+        <v>87.03261042985558</v>
       </c>
       <c r="C442" t="n">
-        <v>80.15881347209668</v>
+        <v>87.05498752855796</v>
       </c>
       <c r="D442" t="n">
-        <v>-0.01383059158317224</v>
+        <v>-0.02237709870237836</v>
       </c>
     </row>
     <row r="443">
@@ -6629,13 +6629,13 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>80.15592919001635</v>
+        <v>87.03493616171546</v>
       </c>
       <c r="C443" t="n">
-        <v>80.23179231001595</v>
+        <v>87.04613027628019</v>
       </c>
       <c r="D443" t="n">
-        <v>-0.07586311999959605</v>
+        <v>-0.01119411456473074</v>
       </c>
     </row>
     <row r="444">
@@ -6643,13 +6643,13 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>80.16489232491493</v>
+        <v>87.04360063398872</v>
       </c>
       <c r="C444" t="n">
-        <v>80.23996636589159</v>
+        <v>87.04397743985167</v>
       </c>
       <c r="D444" t="n">
-        <v>-0.07507404097665926</v>
+        <v>-0.0003768058629560755</v>
       </c>
     </row>
     <row r="445">
@@ -6657,13 +6657,13 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>80.19194135208544</v>
+        <v>90.39534424734255</v>
       </c>
       <c r="C445" t="n">
-        <v>80.22925335642486</v>
+        <v>90.43244717370759</v>
       </c>
       <c r="D445" t="n">
-        <v>-0.03731200433942661</v>
+        <v>-0.03710292636503709</v>
       </c>
     </row>
     <row r="446">
@@ -6671,13 +6671,13 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>80.21270963783573</v>
+        <v>90.40832460894656</v>
       </c>
       <c r="C446" t="n">
-        <v>80.16411939028505</v>
+        <v>90.52808752970381</v>
       </c>
       <c r="D446" t="n">
-        <v>0.04859024755067765</v>
+        <v>-0.1197629207572533</v>
       </c>
     </row>
     <row r="447">
@@ -6685,13 +6685,13 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>80.22200558747703</v>
+        <v>90.46329700960638</v>
       </c>
       <c r="C447" t="n">
-        <v>80.25808311760228</v>
+        <v>90.52417626330069</v>
       </c>
       <c r="D447" t="n">
-        <v>-0.0360775301252545</v>
+        <v>-0.06087925369430991</v>
       </c>
     </row>
     <row r="448">
@@ -6699,13 +6699,13 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>80.22509314823924</v>
+        <v>90.47338969622997</v>
       </c>
       <c r="C448" t="n">
-        <v>80.24606659554544</v>
+        <v>90.49086730637438</v>
       </c>
       <c r="D448" t="n">
-        <v>-0.02097344730620421</v>
+        <v>-0.01747761014441096</v>
       </c>
     </row>
     <row r="449">
@@ -6713,13 +6713,13 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>80.28761683973954</v>
+        <v>90.48253305275374</v>
       </c>
       <c r="C449" t="n">
-        <v>80.19678401998395</v>
+        <v>90.52314836734419</v>
       </c>
       <c r="D449" t="n">
-        <v>0.09083281975559032</v>
+        <v>-0.04061531459045398</v>
       </c>
     </row>
     <row r="450">
@@ -6727,13 +6727,13 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>81.52242997279519</v>
+        <v>90.49518155307571</v>
       </c>
       <c r="C450" t="n">
-        <v>81.62800727319588</v>
+        <v>90.53328929977111</v>
       </c>
       <c r="D450" t="n">
-        <v>-0.1055773004006824</v>
+        <v>-0.03810774669540251</v>
       </c>
     </row>
     <row r="451">
@@ -6741,13 +6741,13 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>81.52797372634606</v>
+        <v>92.14298144941921</v>
       </c>
       <c r="C451" t="n">
-        <v>81.57085250108416</v>
+        <v>92.24213149024462</v>
       </c>
       <c r="D451" t="n">
-        <v>-0.04287877473809942</v>
+        <v>-0.0991500408254069</v>
       </c>
     </row>
     <row r="452">
@@ -6755,13 +6755,13 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>81.57863784277431</v>
+        <v>92.14648152912299</v>
       </c>
       <c r="C452" t="n">
-        <v>81.61245582126433</v>
+        <v>92.18833111218071</v>
       </c>
       <c r="D452" t="n">
-        <v>-0.03381797849002055</v>
+        <v>-0.04184958305771147</v>
       </c>
     </row>
     <row r="453">
@@ -6769,13 +6769,13 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>81.5811714924107</v>
+        <v>92.15253865145968</v>
       </c>
       <c r="C453" t="n">
-        <v>81.61426355283066</v>
+        <v>92.25741395972649</v>
       </c>
       <c r="D453" t="n">
-        <v>-0.03309206041996049</v>
+        <v>-0.1048753082668128</v>
       </c>
     </row>
     <row r="454">
@@ -6783,13 +6783,13 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>81.58760069456886</v>
+        <v>92.1655377926475</v>
       </c>
       <c r="C454" t="n">
-        <v>81.65908379583784</v>
+        <v>92.25216539107251</v>
       </c>
       <c r="D454" t="n">
-        <v>-0.07148310126898139</v>
+        <v>-0.08662759842501089</v>
       </c>
     </row>
     <row r="455">
@@ -6797,13 +6797,13 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>83.5747999885822</v>
+        <v>92.16921201969618</v>
       </c>
       <c r="C455" t="n">
-        <v>83.68024772105755</v>
+        <v>92.28781057335355</v>
       </c>
       <c r="D455" t="n">
-        <v>-0.1054477324753549</v>
+        <v>-0.1185985536573781</v>
       </c>
     </row>
     <row r="456">
@@ -6811,13 +6811,13 @@
         <v>454</v>
       </c>
       <c r="B456" t="n">
-        <v>83.57889708435376</v>
+        <v>92.18205805299937</v>
       </c>
       <c r="C456" t="n">
-        <v>83.70817713013993</v>
+        <v>92.26238232267377</v>
       </c>
       <c r="D456" t="n">
-        <v>-0.1292800457861745</v>
+        <v>-0.08032426967440642</v>
       </c>
     </row>
     <row r="457">
@@ -6825,13 +6825,13 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>83.58819025505096</v>
+        <v>92.19301294036507</v>
       </c>
       <c r="C457" t="n">
-        <v>83.66606884324371</v>
+        <v>92.19923200603205</v>
       </c>
       <c r="D457" t="n">
-        <v>-0.07787858819274618</v>
+        <v>-0.006219065666982715</v>
       </c>
     </row>
     <row r="458">
@@ -6839,13 +6839,13 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>83.59481438893137</v>
+        <v>92.20264192486935</v>
       </c>
       <c r="C458" t="n">
-        <v>83.65424670571014</v>
+        <v>92.26531095117174</v>
       </c>
       <c r="D458" t="n">
-        <v>-0.05943231677876781</v>
+        <v>-0.06266902630238746</v>
       </c>
     </row>
     <row r="459">
@@ -6853,13 +6853,13 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>83.59483210683001</v>
+        <v>92.20871906603683</v>
       </c>
       <c r="C459" t="n">
-        <v>83.61230083959342</v>
+        <v>92.25829080261171</v>
       </c>
       <c r="D459" t="n">
-        <v>-0.01746873276340466</v>
+        <v>-0.04957173657487601</v>
       </c>
     </row>
     <row r="460">
@@ -6867,13 +6867,13 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>83.59841483466687</v>
+        <v>92.20937118683436</v>
       </c>
       <c r="C460" t="n">
-        <v>83.66301988922798</v>
+        <v>92.2312681133193</v>
       </c>
       <c r="D460" t="n">
-        <v>-0.06460505456111321</v>
+        <v>-0.02189692648494201</v>
       </c>
     </row>
     <row r="461">
@@ -6881,13 +6881,13 @@
         <v>459</v>
       </c>
       <c r="B461" t="n">
-        <v>83.62326941104193</v>
+        <v>92.21644588337426</v>
       </c>
       <c r="C461" t="n">
-        <v>83.70734248893588</v>
+        <v>92.22587380379044</v>
       </c>
       <c r="D461" t="n">
-        <v>-0.08407307789394736</v>
+        <v>-0.009427920416172242</v>
       </c>
     </row>
     <row r="462">
@@ -6895,13 +6895,13 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>83.62438816257693</v>
+        <v>92.22616255182831</v>
       </c>
       <c r="C462" t="n">
-        <v>83.70705914424821</v>
+        <v>92.27426651120206</v>
       </c>
       <c r="D462" t="n">
-        <v>-0.08267098167127074</v>
+        <v>-0.04810395937374778</v>
       </c>
     </row>
     <row r="463">
@@ -6909,13 +6909,13 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>83.63399603648796</v>
+        <v>92.24132733914837</v>
       </c>
       <c r="C463" t="n">
-        <v>83.69581392789681</v>
+        <v>92.26351742124034</v>
       </c>
       <c r="D463" t="n">
-        <v>-0.0618178914088503</v>
+        <v>-0.02219008209196716</v>
       </c>
     </row>
     <row r="464">
@@ -6923,13 +6923,13 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>83.63445113138408</v>
+        <v>92.45131194795184</v>
       </c>
       <c r="C464" t="n">
-        <v>83.64542024912269</v>
+        <v>92.24544807631561</v>
       </c>
       <c r="D464" t="n">
-        <v>-0.01096911773861109</v>
+        <v>0.2058638716362253</v>
       </c>
     </row>
     <row r="465">
@@ -6937,13 +6937,13 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>83.65696185337838</v>
+        <v>92.719508484353</v>
       </c>
       <c r="C465" t="n">
-        <v>83.66675291930609</v>
+        <v>92.79583290159664</v>
       </c>
       <c r="D465" t="n">
-        <v>-0.009791065927714726</v>
+        <v>-0.07632441724364014</v>
       </c>
     </row>
     <row r="466">
@@ -6951,13 +6951,13 @@
         <v>464</v>
       </c>
       <c r="B466" t="n">
-        <v>83.66779802494727</v>
+        <v>92.75405872052777</v>
       </c>
       <c r="C466" t="n">
-        <v>83.70145541326964</v>
+        <v>92.8468923473398</v>
       </c>
       <c r="D466" t="n">
-        <v>-0.03365738832236786</v>
+        <v>-0.09283362681203755</v>
       </c>
     </row>
     <row r="467">
@@ -6965,13 +6965,13 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>83.67077567695691</v>
+        <v>92.77062483928761</v>
       </c>
       <c r="C467" t="n">
-        <v>83.67199078431379</v>
+        <v>92.84155422670902</v>
       </c>
       <c r="D467" t="n">
-        <v>-0.001215107356884459</v>
+        <v>-0.07092938742141541</v>
       </c>
     </row>
     <row r="468">
@@ -6979,13 +6979,13 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>83.6811300987995</v>
+        <v>92.77240754814095</v>
       </c>
       <c r="C468" t="n">
-        <v>83.70561947001842</v>
+        <v>92.80306074794444</v>
       </c>
       <c r="D468" t="n">
-        <v>-0.02448937121891959</v>
+        <v>-0.03065319980349557</v>
       </c>
     </row>
     <row r="469">
@@ -6993,13 +6993,13 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>83.79166969439403</v>
+        <v>92.7776032083482</v>
       </c>
       <c r="C469" t="n">
-        <v>83.66593389127834</v>
+        <v>92.79671272964943</v>
       </c>
       <c r="D469" t="n">
-        <v>0.1257358031156883</v>
+        <v>-0.01910952130123178</v>
       </c>
     </row>
     <row r="470">
@@ -7007,13 +7007,13 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>84.11634523398669</v>
+        <v>92.77907264866015</v>
       </c>
       <c r="C470" t="n">
-        <v>84.12274039940479</v>
+        <v>92.82367566988374</v>
       </c>
       <c r="D470" t="n">
-        <v>-0.006395165418098259</v>
+        <v>-0.04460302122359394</v>
       </c>
     </row>
     <row r="471">
@@ -7021,13 +7021,13 @@
         <v>469</v>
       </c>
       <c r="B471" t="n">
-        <v>84.14303043943366</v>
+        <v>92.78042424572141</v>
       </c>
       <c r="C471" t="n">
-        <v>84.16386499498412</v>
+        <v>92.85822268425096</v>
       </c>
       <c r="D471" t="n">
-        <v>-0.02083455555046498</v>
+        <v>-0.07779843852955537</v>
       </c>
     </row>
     <row r="472">
@@ -7035,13 +7035,13 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>84.14353865413925</v>
+        <v>92.79212103326662</v>
       </c>
       <c r="C472" t="n">
-        <v>84.16936395013805</v>
+        <v>92.81056217284844</v>
       </c>
       <c r="D472" t="n">
-        <v>-0.0258252959987999</v>
+        <v>-0.01844113958181026</v>
       </c>
     </row>
     <row r="473">
@@ -7049,13 +7049,13 @@
         <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>84.14924596428776</v>
+        <v>92.80004963831372</v>
       </c>
       <c r="C473" t="n">
-        <v>84.16425387993323</v>
+        <v>92.82117877039781</v>
       </c>
       <c r="D473" t="n">
-        <v>-0.01500791564546944</v>
+        <v>-0.02112913208408429</v>
       </c>
     </row>
     <row r="474">
@@ -7063,13 +7063,13 @@
         <v>472</v>
       </c>
       <c r="B474" t="n">
-        <v>84.15123562191825</v>
+        <v>92.81832582795499</v>
       </c>
       <c r="C474" t="n">
-        <v>84.1584774645962</v>
+        <v>92.85941093885468</v>
       </c>
       <c r="D474" t="n">
-        <v>-0.007241842677956356</v>
+        <v>-0.04108511089968658</v>
       </c>
     </row>
     <row r="475">
@@ -7077,13 +7077,13 @@
         <v>473</v>
       </c>
       <c r="B475" t="n">
-        <v>84.23478618817256</v>
+        <v>92.84018281329959</v>
       </c>
       <c r="C475" t="n">
-        <v>84.31178193781901</v>
+        <v>92.85011929175145</v>
       </c>
       <c r="D475" t="n">
-        <v>-0.07699574964644285</v>
+        <v>-0.00993647845186274</v>
       </c>
     </row>
     <row r="476">
@@ -7091,13 +7091,13 @@
         <v>474</v>
       </c>
       <c r="B476" t="n">
-        <v>84.25238683521802</v>
+        <v>94.11214409157381</v>
       </c>
       <c r="C476" t="n">
-        <v>84.38696700615351</v>
+        <v>94.23060375412651</v>
       </c>
       <c r="D476" t="n">
-        <v>-0.134580170935493</v>
+        <v>-0.118459662552695</v>
       </c>
     </row>
     <row r="477">
@@ -7105,13 +7105,13 @@
         <v>475</v>
       </c>
       <c r="B477" t="n">
-        <v>84.2541699094686</v>
+        <v>94.13376228821149</v>
       </c>
       <c r="C477" t="n">
-        <v>84.35524291545458</v>
+        <v>94.17191236717197</v>
       </c>
       <c r="D477" t="n">
-        <v>-0.101073005985981</v>
+        <v>-0.03815007896048428</v>
       </c>
     </row>
     <row r="478">
@@ -7119,13 +7119,13 @@
         <v>476</v>
       </c>
       <c r="B478" t="n">
-        <v>84.26273608206469</v>
+        <v>94.1464638641304</v>
       </c>
       <c r="C478" t="n">
-        <v>84.38489530342314</v>
+        <v>94.1876478594088</v>
       </c>
       <c r="D478" t="n">
-        <v>-0.1221592213584444</v>
+        <v>-0.04118399527840211</v>
       </c>
     </row>
     <row r="479">
@@ -7133,13 +7133,13 @@
         <v>477</v>
       </c>
       <c r="B479" t="n">
-        <v>84.26442243446165</v>
+        <v>94.16204153134719</v>
       </c>
       <c r="C479" t="n">
-        <v>84.35763854666753</v>
+        <v>94.25603098026028</v>
       </c>
       <c r="D479" t="n">
-        <v>-0.09321611220588011</v>
+        <v>-0.09398944891309213</v>
       </c>
     </row>
     <row r="480">
@@ -7147,13 +7147,13 @@
         <v>478</v>
       </c>
       <c r="B480" t="n">
-        <v>84.26691390933598</v>
+        <v>94.17658625776197</v>
       </c>
       <c r="C480" t="n">
-        <v>84.3433518392922</v>
+        <v>94.21413848164671</v>
       </c>
       <c r="D480" t="n">
-        <v>-0.07643792995621368</v>
+        <v>-0.03755222388474522</v>
       </c>
     </row>
     <row r="481">
@@ -7161,13 +7161,13 @@
         <v>479</v>
       </c>
       <c r="B481" t="n">
-        <v>84.27024736079316</v>
+        <v>94.21593395708028</v>
       </c>
       <c r="C481" t="n">
-        <v>84.28679970548561</v>
+        <v>94.24923174910266</v>
       </c>
       <c r="D481" t="n">
-        <v>-0.01655234469244249</v>
+        <v>-0.03329779202238115</v>
       </c>
     </row>
     <row r="482">
@@ -7175,13 +7175,13 @@
         <v>480</v>
       </c>
       <c r="B482" t="n">
-        <v>84.27783696130079</v>
+        <v>94.23215949386208</v>
       </c>
       <c r="C482" t="n">
-        <v>84.28624592125689</v>
+        <v>94.2387628591855</v>
       </c>
       <c r="D482" t="n">
-        <v>-0.008408959956099693</v>
+        <v>-0.006603365323414323</v>
       </c>
     </row>
     <row r="483">
@@ -7189,13 +7189,13 @@
         <v>481</v>
       </c>
       <c r="B483" t="n">
-        <v>84.2783998497532</v>
+        <v>94.25242085205053</v>
       </c>
       <c r="C483" t="n">
-        <v>84.39487334674847</v>
+        <v>94.2590919221055</v>
       </c>
       <c r="D483" t="n">
-        <v>-0.116473496995269</v>
+        <v>-0.006671070054963479</v>
       </c>
     </row>
     <row r="484">
@@ -7203,13 +7203,13 @@
         <v>482</v>
       </c>
       <c r="B484" t="n">
-        <v>84.28264767300388</v>
+        <v>94.25902248927385</v>
       </c>
       <c r="C484" t="n">
-        <v>84.3544484429371</v>
+        <v>94.26130741704677</v>
       </c>
       <c r="D484" t="n">
-        <v>-0.07180076993321904</v>
+        <v>-0.002284927772919332</v>
       </c>
     </row>
     <row r="485">
@@ -7217,13 +7217,13 @@
         <v>483</v>
       </c>
       <c r="B485" t="n">
-        <v>84.28305712420337</v>
+        <v>94.27779701749257</v>
       </c>
       <c r="C485" t="n">
-        <v>84.32743218792504</v>
+        <v>94.28500042654755</v>
       </c>
       <c r="D485" t="n">
-        <v>-0.04437506372167377</v>
+        <v>-0.007203409054980625</v>
       </c>
     </row>
     <row r="486">
@@ -7231,13 +7231,13 @@
         <v>484</v>
       </c>
       <c r="B486" t="n">
-        <v>84.28518344118078</v>
+        <v>94.42349773101698</v>
       </c>
       <c r="C486" t="n">
-        <v>84.36126490574051</v>
+        <v>94.47920982304232</v>
       </c>
       <c r="D486" t="n">
-        <v>-0.07608146455973497</v>
+        <v>-0.05571209202534533</v>
       </c>
     </row>
     <row r="487">
@@ -7245,13 +7245,13 @@
         <v>485</v>
       </c>
       <c r="B487" t="n">
-        <v>84.2860078601573</v>
+        <v>94.42624300201784</v>
       </c>
       <c r="C487" t="n">
-        <v>84.34454386789388</v>
+        <v>94.47396728255134</v>
       </c>
       <c r="D487" t="n">
-        <v>-0.05853600773657774</v>
+        <v>-0.04772428053350097</v>
       </c>
     </row>
     <row r="488">
@@ -7259,13 +7259,13 @@
         <v>486</v>
       </c>
       <c r="B488" t="n">
-        <v>84.28629465404666</v>
+        <v>94.43957950728642</v>
       </c>
       <c r="C488" t="n">
-        <v>84.29384219746497</v>
+        <v>94.44293833592877</v>
       </c>
       <c r="D488" t="n">
-        <v>-0.007547543418311875</v>
+        <v>-0.003358828642348044</v>
       </c>
     </row>
     <row r="489">
@@ -7273,13 +7273,13 @@
         <v>487</v>
       </c>
       <c r="B489" t="n">
-        <v>84.28864266442913</v>
+        <v>94.44615217245345</v>
       </c>
       <c r="C489" t="n">
-        <v>84.39195694919438</v>
+        <v>94.49021975595896</v>
       </c>
       <c r="D489" t="n">
-        <v>-0.1033142847652471</v>
+        <v>-0.04406758350550888</v>
       </c>
     </row>
     <row r="490">
@@ -7287,13 +7287,13 @@
         <v>488</v>
       </c>
       <c r="B490" t="n">
-        <v>84.29196331580613</v>
+        <v>94.4623681560647</v>
       </c>
       <c r="C490" t="n">
-        <v>84.32267904087297</v>
+        <v>94.49250420954762</v>
       </c>
       <c r="D490" t="n">
-        <v>-0.03071572506684106</v>
+        <v>-0.03013605348292003</v>
       </c>
     </row>
     <row r="491">
@@ -7301,13 +7301,13 @@
         <v>489</v>
       </c>
       <c r="B491" t="n">
-        <v>84.29532416673037</v>
+        <v>94.52484625553295</v>
       </c>
       <c r="C491" t="n">
-        <v>84.38762463094046</v>
+        <v>94.56565464185661</v>
       </c>
       <c r="D491" t="n">
-        <v>-0.09230046421009774</v>
+        <v>-0.04080838632366124</v>
       </c>
     </row>
     <row r="492">
@@ -7315,13 +7315,13 @@
         <v>490</v>
       </c>
       <c r="B492" t="n">
-        <v>84.29774362974341</v>
+        <v>97.66954864481082</v>
       </c>
       <c r="C492" t="n">
-        <v>84.31615713825293</v>
+        <v>97.68842029161935</v>
       </c>
       <c r="D492" t="n">
-        <v>-0.01841350850952495</v>
+        <v>-0.01887164680853459</v>
       </c>
     </row>
     <row r="493">
@@ -7329,13 +7329,13 @@
         <v>491</v>
       </c>
       <c r="B493" t="n">
-        <v>84.29974436650888</v>
+        <v>97.68270833072867</v>
       </c>
       <c r="C493" t="n">
-        <v>84.40057714377815</v>
+        <v>97.80879617779816</v>
       </c>
       <c r="D493" t="n">
-        <v>-0.1008327772692752</v>
+        <v>-0.1260878470694848</v>
       </c>
     </row>
     <row r="494">
@@ -7343,13 +7343,13 @@
         <v>492</v>
       </c>
       <c r="B494" t="n">
-        <v>84.31212516056893</v>
+        <v>97.72838765086222</v>
       </c>
       <c r="C494" t="n">
-        <v>84.3475630950324</v>
+        <v>97.73992994686517</v>
       </c>
       <c r="D494" t="n">
-        <v>-0.03543793446347365</v>
+        <v>-0.01154229600295764</v>
       </c>
     </row>
     <row r="495">
@@ -7357,13 +7357,13 @@
         <v>493</v>
       </c>
       <c r="B495" t="n">
-        <v>84.31601177598405</v>
+        <v>97.73510570674057</v>
       </c>
       <c r="C495" t="n">
-        <v>84.32067901037871</v>
+        <v>97.83174433705189</v>
       </c>
       <c r="D495" t="n">
-        <v>-0.004667234394659658</v>
+        <v>-0.09663863031131825</v>
       </c>
     </row>
     <row r="496">
@@ -7371,13 +7371,13 @@
         <v>494</v>
       </c>
       <c r="B496" t="n">
-        <v>84.32277480725296</v>
+        <v>97.74254282595086</v>
       </c>
       <c r="C496" t="n">
-        <v>84.36789858217459</v>
+        <v>97.77145863837013</v>
       </c>
       <c r="D496" t="n">
-        <v>-0.04512377492163466</v>
+        <v>-0.02891581241927099</v>
       </c>
     </row>
     <row r="497">
@@ -7385,783 +7385,13 @@
         <v>495</v>
       </c>
       <c r="B497" t="n">
-        <v>84.33864990086342</v>
+        <v>97.76105905466383</v>
       </c>
       <c r="C497" t="n">
-        <v>84.3637107910362</v>
+        <v>97.77066457210667</v>
       </c>
       <c r="D497" t="n">
-        <v>-0.02506089017278157</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" s="1" t="n">
-        <v>496</v>
-      </c>
-      <c r="B498" t="n">
-        <v>84.33899457638735</v>
-      </c>
-      <c r="C498" t="n">
-        <v>84.40835343439308</v>
-      </c>
-      <c r="D498" t="n">
-        <v>-0.06935885800572805</v>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" s="1" t="n">
-        <v>497</v>
-      </c>
-      <c r="B499" t="n">
-        <v>84.36261256064076</v>
-      </c>
-      <c r="C499" t="n">
-        <v>84.39342099343779</v>
-      </c>
-      <c r="D499" t="n">
-        <v>-0.0308084327970306</v>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" s="1" t="n">
-        <v>498</v>
-      </c>
-      <c r="B500" t="n">
-        <v>84.36278246525168</v>
-      </c>
-      <c r="C500" t="n">
-        <v>84.41732287611875</v>
-      </c>
-      <c r="D500" t="n">
-        <v>-0.05454041086706241</v>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" s="1" t="n">
-        <v>499</v>
-      </c>
-      <c r="B501" t="n">
-        <v>84.36470343797036</v>
-      </c>
-      <c r="C501" t="n">
-        <v>84.38909182565561</v>
-      </c>
-      <c r="D501" t="n">
-        <v>-0.02438838768524931</v>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" s="1" t="n">
-        <v>500</v>
-      </c>
-      <c r="B502" t="n">
-        <v>84.36572603303902</v>
-      </c>
-      <c r="C502" t="n">
-        <v>84.40509279537717</v>
-      </c>
-      <c r="D502" t="n">
-        <v>-0.03936676233814751</v>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" s="1" t="n">
-        <v>501</v>
-      </c>
-      <c r="B503" t="n">
-        <v>84.37125556371933</v>
-      </c>
-      <c r="C503" t="n">
-        <v>84.40110224468945</v>
-      </c>
-      <c r="D503" t="n">
-        <v>-0.02984668097012388</v>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" s="1" t="n">
-        <v>502</v>
-      </c>
-      <c r="B504" t="n">
-        <v>84.37712528517888</v>
-      </c>
-      <c r="C504" t="n">
-        <v>84.39065620526344</v>
-      </c>
-      <c r="D504" t="n">
-        <v>-0.01353092008456258</v>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" s="1" t="n">
-        <v>503</v>
-      </c>
-      <c r="B505" t="n">
-        <v>84.38697168410492</v>
-      </c>
-      <c r="C505" t="n">
-        <v>84.40065729862464</v>
-      </c>
-      <c r="D505" t="n">
-        <v>-0.01368561451971573</v>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" s="1" t="n">
-        <v>504</v>
-      </c>
-      <c r="B506" t="n">
-        <v>84.38753774001533</v>
-      </c>
-      <c r="C506" t="n">
-        <v>84.39896649319721</v>
-      </c>
-      <c r="D506" t="n">
-        <v>-0.01142875318187464</v>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" s="1" t="n">
-        <v>505</v>
-      </c>
-      <c r="B507" t="n">
-        <v>87.67944729003969</v>
-      </c>
-      <c r="C507" t="n">
-        <v>87.79429374158428</v>
-      </c>
-      <c r="D507" t="n">
-        <v>-0.1148464515445937</v>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" s="1" t="n">
-        <v>506</v>
-      </c>
-      <c r="B508" t="n">
-        <v>87.686647540358</v>
-      </c>
-      <c r="C508" t="n">
-        <v>87.74476449547164</v>
-      </c>
-      <c r="D508" t="n">
-        <v>-0.0581169551136469</v>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" s="1" t="n">
-        <v>507</v>
-      </c>
-      <c r="B509" t="n">
-        <v>87.69349753690055</v>
-      </c>
-      <c r="C509" t="n">
-        <v>87.76300566574994</v>
-      </c>
-      <c r="D509" t="n">
-        <v>-0.06950812884939239</v>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" s="1" t="n">
-        <v>508</v>
-      </c>
-      <c r="B510" t="n">
-        <v>87.69976442599113</v>
-      </c>
-      <c r="C510" t="n">
-        <v>87.74218621426124</v>
-      </c>
-      <c r="D510" t="n">
-        <v>-0.04242178827010434</v>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" s="1" t="n">
-        <v>509</v>
-      </c>
-      <c r="B511" t="n">
-        <v>87.70166760614467</v>
-      </c>
-      <c r="C511" t="n">
-        <v>87.71724851548439</v>
-      </c>
-      <c r="D511" t="n">
-        <v>-0.01558090933971812</v>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" s="1" t="n">
-        <v>510</v>
-      </c>
-      <c r="B512" t="n">
-        <v>87.70898833293153</v>
-      </c>
-      <c r="C512" t="n">
-        <v>87.75920040788593</v>
-      </c>
-      <c r="D512" t="n">
-        <v>-0.05021207495440194</v>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" s="1" t="n">
-        <v>511</v>
-      </c>
-      <c r="B513" t="n">
-        <v>87.71466989873029</v>
-      </c>
-      <c r="C513" t="n">
-        <v>87.79612075914289</v>
-      </c>
-      <c r="D513" t="n">
-        <v>-0.08145086041260186</v>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" s="1" t="n">
-        <v>512</v>
-      </c>
-      <c r="B514" t="n">
-        <v>87.71469428812676</v>
-      </c>
-      <c r="C514" t="n">
-        <v>87.77602266250886</v>
-      </c>
-      <c r="D514" t="n">
-        <v>-0.06132837438210004</v>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" s="1" t="n">
-        <v>513</v>
-      </c>
-      <c r="B515" t="n">
-        <v>87.71636471689361</v>
-      </c>
-      <c r="C515" t="n">
-        <v>87.7842379757475</v>
-      </c>
-      <c r="D515" t="n">
-        <v>-0.0678732588538935</v>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" s="1" t="n">
-        <v>514</v>
-      </c>
-      <c r="B516" t="n">
-        <v>87.76800044825815</v>
-      </c>
-      <c r="C516" t="n">
-        <v>87.7993889683089</v>
-      </c>
-      <c r="D516" t="n">
-        <v>-0.03138852005075421</v>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" s="1" t="n">
-        <v>515</v>
-      </c>
-      <c r="B517" t="n">
-        <v>94.33024613242409</v>
-      </c>
-      <c r="C517" t="n">
-        <v>94.37589142974576</v>
-      </c>
-      <c r="D517" t="n">
-        <v>-0.04564529732166989</v>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" s="1" t="n">
-        <v>516</v>
-      </c>
-      <c r="B518" t="n">
-        <v>94.36672284100352</v>
-      </c>
-      <c r="C518" t="n">
-        <v>94.36788663139583</v>
-      </c>
-      <c r="D518" t="n">
-        <v>-0.001163790392311626</v>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" s="1" t="n">
-        <v>517</v>
-      </c>
-      <c r="B519" t="n">
-        <v>94.36674350218991</v>
-      </c>
-      <c r="C519" t="n">
-        <v>94.39832787159555</v>
-      </c>
-      <c r="D519" t="n">
-        <v>-0.03158436940564968</v>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" s="1" t="n">
-        <v>518</v>
-      </c>
-      <c r="B520" t="n">
-        <v>94.37042497610834</v>
-      </c>
-      <c r="C520" t="n">
-        <v>94.38572055290875</v>
-      </c>
-      <c r="D520" t="n">
-        <v>-0.01529557680041194</v>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" s="1" t="n">
-        <v>519</v>
-      </c>
-      <c r="B521" t="n">
-        <v>94.39200024323441</v>
-      </c>
-      <c r="C521" t="n">
-        <v>94.40094004992277</v>
-      </c>
-      <c r="D521" t="n">
-        <v>-0.008939806688360363</v>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" s="1" t="n">
-        <v>520</v>
-      </c>
-      <c r="B522" t="n">
-        <v>94.4098849308112</v>
-      </c>
-      <c r="C522" t="n">
-        <v>94.44760140231585</v>
-      </c>
-      <c r="D522" t="n">
-        <v>-0.03771647150465185</v>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" s="1" t="n">
-        <v>521</v>
-      </c>
-      <c r="B523" t="n">
-        <v>94.44557518100089</v>
-      </c>
-      <c r="C523" t="n">
-        <v>94.50042215843632</v>
-      </c>
-      <c r="D523" t="n">
-        <v>-0.05484697743543165</v>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" s="1" t="n">
-        <v>522</v>
-      </c>
-      <c r="B524" t="n">
-        <v>94.45269822167371</v>
-      </c>
-      <c r="C524" t="n">
-        <v>94.45584213877673</v>
-      </c>
-      <c r="D524" t="n">
-        <v>-0.003143917103017202</v>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" s="1" t="n">
-        <v>523</v>
-      </c>
-      <c r="B525" t="n">
-        <v>94.49401437047058</v>
-      </c>
-      <c r="C525" t="n">
-        <v>94.49610564375749</v>
-      </c>
-      <c r="D525" t="n">
-        <v>-0.002091273286907835</v>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" s="1" t="n">
-        <v>524</v>
-      </c>
-      <c r="B526" t="n">
-        <v>96.4864129657872</v>
-      </c>
-      <c r="C526" t="n">
-        <v>96.51969607061446</v>
-      </c>
-      <c r="D526" t="n">
-        <v>-0.03328310482726238</v>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" s="1" t="n">
-        <v>525</v>
-      </c>
-      <c r="B527" t="n">
-        <v>96.4998977330113</v>
-      </c>
-      <c r="C527" t="n">
-        <v>96.53305585335021</v>
-      </c>
-      <c r="D527" t="n">
-        <v>-0.03315812033891063</v>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" s="1" t="n">
-        <v>526</v>
-      </c>
-      <c r="B528" t="n">
-        <v>96.50621236103881</v>
-      </c>
-      <c r="C528" t="n">
-        <v>96.60605263346146</v>
-      </c>
-      <c r="D528" t="n">
-        <v>-0.0998402724226537</v>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" s="1" t="n">
-        <v>527</v>
-      </c>
-      <c r="B529" t="n">
-        <v>96.51207868561002</v>
-      </c>
-      <c r="C529" t="n">
-        <v>96.63759909037807</v>
-      </c>
-      <c r="D529" t="n">
-        <v>-0.1255204047680536</v>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" s="1" t="n">
-        <v>528</v>
-      </c>
-      <c r="B530" t="n">
-        <v>96.53389213821772</v>
-      </c>
-      <c r="C530" t="n">
-        <v>96.58949650364589</v>
-      </c>
-      <c r="D530" t="n">
-        <v>-0.0556043654281666</v>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" s="1" t="n">
-        <v>529</v>
-      </c>
-      <c r="B531" t="n">
-        <v>96.5430885409336</v>
-      </c>
-      <c r="C531" t="n">
-        <v>96.57252872239869</v>
-      </c>
-      <c r="D531" t="n">
-        <v>-0.02944018146509109</v>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" s="1" t="n">
-        <v>530</v>
-      </c>
-      <c r="B532" t="n">
-        <v>96.56665296122883</v>
-      </c>
-      <c r="C532" t="n">
-        <v>96.63037389379301</v>
-      </c>
-      <c r="D532" t="n">
-        <v>-0.06372093256418054</v>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" s="1" t="n">
-        <v>531</v>
-      </c>
-      <c r="B533" t="n">
-        <v>96.57942471388671</v>
-      </c>
-      <c r="C533" t="n">
-        <v>96.62246611104248</v>
-      </c>
-      <c r="D533" t="n">
-        <v>-0.04304139715577548</v>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" s="1" t="n">
-        <v>532</v>
-      </c>
-      <c r="B534" t="n">
-        <v>96.58522740737808</v>
-      </c>
-      <c r="C534" t="n">
-        <v>96.6334608739382</v>
-      </c>
-      <c r="D534" t="n">
-        <v>-0.04823346656012006</v>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" s="1" t="n">
-        <v>533</v>
-      </c>
-      <c r="B535" t="n">
-        <v>96.59607407184386</v>
-      </c>
-      <c r="C535" t="n">
-        <v>96.60685806676106</v>
-      </c>
-      <c r="D535" t="n">
-        <v>-0.01078399491720461</v>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" s="1" t="n">
-        <v>534</v>
-      </c>
-      <c r="B536" t="n">
-        <v>96.60673748577805</v>
-      </c>
-      <c r="C536" t="n">
-        <v>96.60812746559783</v>
-      </c>
-      <c r="D536" t="n">
-        <v>-0.001389979819776954</v>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" s="1" t="n">
-        <v>535</v>
-      </c>
-      <c r="B537" t="n">
-        <v>96.6160374424316</v>
-      </c>
-      <c r="C537" t="n">
-        <v>96.61709833593012</v>
-      </c>
-      <c r="D537" t="n">
-        <v>-0.001060893498518567</v>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" s="1" t="n">
-        <v>536</v>
-      </c>
-      <c r="B538" t="n">
-        <v>96.79056629653465</v>
-      </c>
-      <c r="C538" t="n">
-        <v>96.54541453708229</v>
-      </c>
-      <c r="D538" t="n">
-        <v>0.2451517594523551</v>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" s="1" t="n">
-        <v>537</v>
-      </c>
-      <c r="B539" t="n">
-        <v>97.5034476032467</v>
-      </c>
-      <c r="C539" t="n">
-        <v>97.61275564818109</v>
-      </c>
-      <c r="D539" t="n">
-        <v>-0.1093080449343944</v>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" s="1" t="n">
-        <v>538</v>
-      </c>
-      <c r="B540" t="n">
-        <v>97.51589608651791</v>
-      </c>
-      <c r="C540" t="n">
-        <v>97.55888824385426</v>
-      </c>
-      <c r="D540" t="n">
-        <v>-0.04299215733634298</v>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" s="1" t="n">
-        <v>539</v>
-      </c>
-      <c r="B541" t="n">
-        <v>97.52226879140093</v>
-      </c>
-      <c r="C541" t="n">
-        <v>97.65468030689287</v>
-      </c>
-      <c r="D541" t="n">
-        <v>-0.1324115154919383</v>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" s="1" t="n">
-        <v>540</v>
-      </c>
-      <c r="B542" t="n">
-        <v>97.52237694536477</v>
-      </c>
-      <c r="C542" t="n">
-        <v>97.65658815026933</v>
-      </c>
-      <c r="D542" t="n">
-        <v>-0.1342112049045596</v>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" s="1" t="n">
-        <v>541</v>
-      </c>
-      <c r="B543" t="n">
-        <v>97.54438760936104</v>
-      </c>
-      <c r="C543" t="n">
-        <v>97.59801666090917</v>
-      </c>
-      <c r="D543" t="n">
-        <v>-0.05362905154812836</v>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" s="1" t="n">
-        <v>542</v>
-      </c>
-      <c r="B544" t="n">
-        <v>97.55248354228281</v>
-      </c>
-      <c r="C544" t="n">
-        <v>97.64443198053029</v>
-      </c>
-      <c r="D544" t="n">
-        <v>-0.09194843824747068</v>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" s="1" t="n">
-        <v>543</v>
-      </c>
-      <c r="B545" t="n">
-        <v>97.55933913463589</v>
-      </c>
-      <c r="C545" t="n">
-        <v>97.64269494145343</v>
-      </c>
-      <c r="D545" t="n">
-        <v>-0.0833558068175364</v>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" s="1" t="n">
-        <v>544</v>
-      </c>
-      <c r="B546" t="n">
-        <v>97.55944215712226</v>
-      </c>
-      <c r="C546" t="n">
-        <v>97.63950975378926</v>
-      </c>
-      <c r="D546" t="n">
-        <v>-0.08006759666699281</v>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" s="1" t="n">
-        <v>545</v>
-      </c>
-      <c r="B547" t="n">
-        <v>97.56955248172673</v>
-      </c>
-      <c r="C547" t="n">
-        <v>97.62677834935201</v>
-      </c>
-      <c r="D547" t="n">
-        <v>-0.05722586762527726</v>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" s="1" t="n">
-        <v>546</v>
-      </c>
-      <c r="B548" t="n">
-        <v>97.57191318698172</v>
-      </c>
-      <c r="C548" t="n">
-        <v>97.58677659860109</v>
-      </c>
-      <c r="D548" t="n">
-        <v>-0.01486341161937332</v>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" s="1" t="n">
-        <v>547</v>
-      </c>
-      <c r="B549" t="n">
-        <v>97.58681790002048</v>
-      </c>
-      <c r="C549" t="n">
-        <v>97.59557140481816</v>
-      </c>
-      <c r="D549" t="n">
-        <v>-0.008753504797681444</v>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" s="1" t="n">
-        <v>548</v>
-      </c>
-      <c r="B550" t="n">
-        <v>97.5928772665647</v>
-      </c>
-      <c r="C550" t="n">
-        <v>97.624286602675</v>
-      </c>
-      <c r="D550" t="n">
-        <v>-0.0314093361103005</v>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" s="1" t="n">
-        <v>549</v>
-      </c>
-      <c r="B551" t="n">
-        <v>97.61141652536533</v>
-      </c>
-      <c r="C551" t="n">
-        <v>97.64973253847489</v>
-      </c>
-      <c r="D551" t="n">
-        <v>-0.03831601310956501</v>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" s="1" t="n">
-        <v>550</v>
-      </c>
-      <c r="B552" t="n">
-        <v>97.6333630019695</v>
-      </c>
-      <c r="C552" t="n">
-        <v>97.63717812802527</v>
-      </c>
-      <c r="D552" t="n">
-        <v>-0.003815126055769724</v>
+        <v>-0.009605517442835776</v>
       </c>
     </row>
   </sheetData>
